--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_10_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_10_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>328714.7622999871</v>
+        <v>395388.8595645804</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10519324.72485262</v>
+        <v>10862730.39474508</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11114334.05581622</v>
+        <v>11470996.98286216</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7971587.883724837</v>
+        <v>7775826.095109767</v>
       </c>
     </row>
     <row r="11">
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>31.78369833035135</v>
       </c>
       <c r="G11" t="n">
-        <v>412.0047042123049</v>
+        <v>325.5384281881966</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>107.0582678444996</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>147.8922813733126</v>
       </c>
       <c r="T11" t="n">
-        <v>208.6587087809922</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>157.8962725079977</v>
+        <v>325.5384281881966</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>325.5384281881966</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>130.7931167225321</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1457,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>101.5708387603328</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5789137785879</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>95.19309049553438</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>28.64164789839402</v>
+        <v>39.98048573913233</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.9064371833227</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8252897530391</v>
+        <v>225.8469563221615</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>137.8871689432632</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>119.2644601989974</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>198.2349661012434</v>
+        <v>20.14455124832617</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>222.804287456612</v>
       </c>
       <c r="U13" t="n">
-        <v>286.238335672811</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>275.3284777988373</v>
       </c>
       <c r="G14" t="n">
-        <v>411.8707348436268</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>286.8185889401751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>16.18117845021883</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1697,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I15" t="n">
-        <v>26.17372043046386</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>28.91812342833375</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8205739680685</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1751,7 +1751,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4515011109318</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H16" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>108.0728512656385</v>
+        <v>33.09692478455678</v>
       </c>
       <c r="S16" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U16" t="n">
-        <v>20.75518086829073</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>290.3459697977524</v>
+        <v>40.05092395345469</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I18" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>134.3646350838588</v>
       </c>
       <c r="T18" t="n">
-        <v>192.0665623188214</v>
+        <v>192.0665623188235</v>
       </c>
       <c r="U18" t="n">
         <v>225.8092030868072</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.146182334060543</v>
       </c>
       <c r="E19" t="n">
-        <v>3.106729775143722</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>411.547702772954</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>23.47240143010534</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>229.8444703169078</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I21" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705217</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>139.0787224114773</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U22" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>161.8015669322327</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,22 +2320,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>189.3973028722239</v>
+        <v>77.71632439138229</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U23" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I24" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705217</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>47.7835497767292</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>220.7486959972119</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>103.3387326418232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>314.6849513277616</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>298.7555711281209</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I27" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>52.00638981463413</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>85.36610313819149</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>32.2449849806544</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.547702772954</v>
+        <v>2.781837962662247</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T29" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2888,10 +2888,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H30" t="n">
-        <v>92.8315678926983</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I30" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705128</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>154.7441876257466</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3009,13 +3009,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V31" t="n">
-        <v>157.7100704918929</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>355.2308786020022</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>44.38499193336602</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I33" t="n">
-        <v>20.22295923705217</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>101.5575724195736</v>
+        <v>86.30632419201525</v>
       </c>
       <c r="S34" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>29.68071649944011</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3271,19 +3271,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>102.4482135770824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>341.8773762503326</v>
       </c>
     </row>
     <row r="36">
@@ -3359,7 +3359,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>135.3343964518655</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H36" t="n">
         <v>92.83156789269626</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>146.2177502975561</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>243.1319241164548</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>64.62356519510891</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>186.194555761685</v>
       </c>
       <c r="G38" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T38" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H39" t="n">
-        <v>92.83156789269626</v>
+        <v>92.8315678926983</v>
       </c>
       <c r="I39" t="n">
         <v>20.22295923705012</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>89.45396294212473</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3714,13 +3714,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2271541212006</v>
+        <v>80.80412156143477</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3745,19 +3745,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>233.7611168744709</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>17.20531528257365</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U41" t="n">
         <v>251.045250128462</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H42" t="n">
-        <v>92.83156789269626</v>
+        <v>92.8315678926983</v>
       </c>
       <c r="I42" t="n">
-        <v>20.22295923705217</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>86.7683712130857</v>
+        <v>145.5531491866653</v>
       </c>
       <c r="H43" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>91.64168375352321</v>
       </c>
       <c r="F44" t="n">
-        <v>15.57113082389272</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>411.547702772954</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>206.6581849802338</v>
@@ -4036,16 +4036,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H45" t="n">
-        <v>92.83156789269742</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I45" t="n">
         <v>20.22295923705012</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>156.8406075404075</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U46" t="n">
         <v>286.2271541212006</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>202.5165419428484</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1253.212717403813</v>
+        <v>495.1141796722754</v>
       </c>
       <c r="C11" t="n">
-        <v>1253.212717403813</v>
+        <v>495.1141796722754</v>
       </c>
       <c r="D11" t="n">
-        <v>1253.212717403813</v>
+        <v>495.1141796722754</v>
       </c>
       <c r="E11" t="n">
-        <v>867.4244648055685</v>
+        <v>495.1141796722754</v>
       </c>
       <c r="F11" t="n">
-        <v>456.4385600159609</v>
+        <v>463.0094338840418</v>
       </c>
       <c r="G11" t="n">
-        <v>40.2721921247438</v>
+        <v>134.1827387444492</v>
       </c>
       <c r="H11" t="n">
-        <v>40.2721921247438</v>
+        <v>134.1827387444492</v>
       </c>
       <c r="I11" t="n">
-        <v>40.2721921247438</v>
+        <v>26.04307425505573</v>
       </c>
       <c r="J11" t="n">
-        <v>138.1540361390473</v>
+        <v>72.20590276986331</v>
       </c>
       <c r="K11" t="n">
-        <v>335.5920653119537</v>
+        <v>192.1305344807279</v>
       </c>
       <c r="L11" t="n">
-        <v>617.4331610236782</v>
+        <v>377.8094064373255</v>
       </c>
       <c r="M11" t="n">
-        <v>962.7051224124043</v>
+        <v>616.0823654215878</v>
       </c>
       <c r="N11" t="n">
-        <v>1318.177753485955</v>
+        <v>862.8246383677576</v>
       </c>
       <c r="O11" t="n">
-        <v>1640.505217744194</v>
+        <v>1082.481108676268</v>
       </c>
       <c r="P11" t="n">
-        <v>1881.103250320201</v>
+        <v>1235.45182329358</v>
       </c>
       <c r="Q11" t="n">
-        <v>2013.60960623719</v>
+        <v>1302.153712752786</v>
       </c>
       <c r="R11" t="n">
-        <v>2013.60960623719</v>
+        <v>1302.153712752786</v>
       </c>
       <c r="S11" t="n">
-        <v>2013.60960623719</v>
+        <v>1152.76756995146</v>
       </c>
       <c r="T11" t="n">
-        <v>1802.843233731137</v>
+        <v>1152.76756995146</v>
       </c>
       <c r="U11" t="n">
-        <v>1802.843233731137</v>
+        <v>1152.76756995146</v>
       </c>
       <c r="V11" t="n">
-        <v>1802.843233731137</v>
+        <v>1152.76756995146</v>
       </c>
       <c r="W11" t="n">
-        <v>1643.352049379625</v>
+        <v>823.940874811868</v>
       </c>
       <c r="X11" t="n">
-        <v>1643.352049379625</v>
+        <v>823.940874811868</v>
       </c>
       <c r="Y11" t="n">
-        <v>1253.212717403813</v>
+        <v>495.1141796722754</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>608.0781971967651</v>
+        <v>169.0242101131013</v>
       </c>
       <c r="C12" t="n">
-        <v>608.0781971967651</v>
+        <v>169.0242101131013</v>
       </c>
       <c r="D12" t="n">
-        <v>608.0781971967651</v>
+        <v>169.0242101131013</v>
       </c>
       <c r="E12" t="n">
-        <v>448.8407421913097</v>
+        <v>66.42740328448232</v>
       </c>
       <c r="F12" t="n">
-        <v>302.3061842181946</v>
+        <v>66.42740328448232</v>
       </c>
       <c r="G12" t="n">
-        <v>165.3577864620452</v>
+        <v>66.42740328448232</v>
       </c>
       <c r="H12" t="n">
-        <v>69.20314959786907</v>
+        <v>66.42740328448232</v>
       </c>
       <c r="I12" t="n">
-        <v>40.2721921247438</v>
+        <v>26.04307425505573</v>
       </c>
       <c r="J12" t="n">
-        <v>79.75210090490893</v>
+        <v>34.71949171444755</v>
       </c>
       <c r="K12" t="n">
-        <v>487.2049626449402</v>
+        <v>293.5596526964999</v>
       </c>
       <c r="L12" t="n">
-        <v>729.348072497045</v>
+        <v>464.9109312578158</v>
       </c>
       <c r="M12" t="n">
-        <v>1031.274528714077</v>
+        <v>684.2266593934646</v>
       </c>
       <c r="N12" t="n">
-        <v>1355.600724732711</v>
+        <v>923.7556671742948</v>
       </c>
       <c r="O12" t="n">
-        <v>1630.076036625586</v>
+        <v>1120.658118304996</v>
       </c>
       <c r="P12" t="n">
-        <v>1831.033606347282</v>
+        <v>1259.356628320837</v>
       </c>
       <c r="Q12" t="n">
-        <v>2013.60960623719</v>
+        <v>1302.153712752786</v>
       </c>
       <c r="R12" t="n">
-        <v>2013.60960623719</v>
+        <v>1302.153712752786</v>
       </c>
       <c r="S12" t="n">
-        <v>1873.300073728783</v>
+        <v>1302.153712752786</v>
       </c>
       <c r="T12" t="n">
-        <v>1873.300073728783</v>
+        <v>1302.153712752786</v>
       </c>
       <c r="U12" t="n">
-        <v>1645.193720442885</v>
+        <v>1074.025474043532</v>
       </c>
       <c r="V12" t="n">
-        <v>1410.041612211142</v>
+        <v>838.8733658117897</v>
       </c>
       <c r="W12" t="n">
-        <v>1155.804255482941</v>
+        <v>584.6360090835881</v>
       </c>
       <c r="X12" t="n">
-        <v>947.952755277408</v>
+        <v>376.7845088780552</v>
       </c>
       <c r="Y12" t="n">
-        <v>740.1924565124541</v>
+        <v>169.0242101131013</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>645.4949305924556</v>
+        <v>612.4549958093677</v>
       </c>
       <c r="C13" t="n">
-        <v>476.5587476645487</v>
+        <v>443.5188128814608</v>
       </c>
       <c r="D13" t="n">
-        <v>326.442108252213</v>
+        <v>293.402173469125</v>
       </c>
       <c r="E13" t="n">
-        <v>187.1621396226542</v>
+        <v>293.402173469125</v>
       </c>
       <c r="F13" t="n">
-        <v>40.2721921247438</v>
+        <v>146.5122259712147</v>
       </c>
       <c r="G13" t="n">
-        <v>40.2721921247438</v>
+        <v>146.5122259712147</v>
       </c>
       <c r="H13" t="n">
-        <v>40.2721921247438</v>
+        <v>146.5122259712147</v>
       </c>
       <c r="I13" t="n">
-        <v>40.2721921247438</v>
+        <v>26.04307425505573</v>
       </c>
       <c r="J13" t="n">
-        <v>51.39314217570723</v>
+        <v>26.04307425505573</v>
       </c>
       <c r="K13" t="n">
-        <v>199.5051160438939</v>
+        <v>142.3979386367008</v>
       </c>
       <c r="L13" t="n">
-        <v>444.563884030293</v>
+        <v>346.8185400704472</v>
       </c>
       <c r="M13" t="n">
-        <v>713.3331181917878</v>
+        <v>572.7405254935666</v>
       </c>
       <c r="N13" t="n">
-        <v>981.1462371155515</v>
+        <v>798.7252074856436</v>
       </c>
       <c r="O13" t="n">
-        <v>1212.498703736547</v>
+        <v>991.4423424715255</v>
       </c>
       <c r="P13" t="n">
-        <v>1386.940024075566</v>
+        <v>1132.824462136918</v>
       </c>
       <c r="Q13" t="n">
-        <v>1424.27907211836</v>
+        <v>1147.275033225054</v>
       </c>
       <c r="R13" t="n">
-        <v>1424.27907211836</v>
+        <v>1147.275033225054</v>
       </c>
       <c r="S13" t="n">
-        <v>1224.041732622155</v>
+        <v>1126.927001661088</v>
       </c>
       <c r="T13" t="n">
-        <v>1224.041732622155</v>
+        <v>901.8721658463282</v>
       </c>
       <c r="U13" t="n">
-        <v>934.9121006294162</v>
+        <v>901.8721658463282</v>
       </c>
       <c r="V13" t="n">
-        <v>934.9121006294162</v>
+        <v>901.8721658463282</v>
       </c>
       <c r="W13" t="n">
-        <v>645.4949305924556</v>
+        <v>612.4549958093677</v>
       </c>
       <c r="X13" t="n">
-        <v>645.4949305924556</v>
+        <v>612.4549958093677</v>
       </c>
       <c r="Y13" t="n">
-        <v>645.4949305924556</v>
+        <v>612.4549958093677</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1625.136916162949</v>
+        <v>728.291045904863</v>
       </c>
       <c r="C14" t="n">
-        <v>1256.174399222538</v>
+        <v>728.291045904863</v>
       </c>
       <c r="D14" t="n">
-        <v>1256.174399222538</v>
+        <v>728.291045904863</v>
       </c>
       <c r="E14" t="n">
-        <v>870.3861466242935</v>
+        <v>728.291045904863</v>
       </c>
       <c r="F14" t="n">
-        <v>459.4002418346859</v>
+        <v>450.1814723706839</v>
       </c>
       <c r="G14" t="n">
-        <v>43.36919653809315</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H14" t="n">
-        <v>43.36919653809315</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I14" t="n">
-        <v>43.36919653809315</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J14" t="n">
-        <v>152.5078184301906</v>
+        <v>107.8290791267618</v>
       </c>
       <c r="K14" t="n">
-        <v>366.8168396232728</v>
+        <v>269.6240911917569</v>
       </c>
       <c r="L14" t="n">
-        <v>669.5878927711885</v>
+        <v>507.2468724099484</v>
       </c>
       <c r="M14" t="n">
-        <v>1038.148464578732</v>
+        <v>803.3174389675509</v>
       </c>
       <c r="N14" t="n">
-        <v>1417.28654013517</v>
+        <v>1108.792545203136</v>
       </c>
       <c r="O14" t="n">
-        <v>1761.9606125456</v>
+        <v>1383.90876451977</v>
       </c>
       <c r="P14" t="n">
-        <v>2021.630958172451</v>
+        <v>1584.213091808873</v>
       </c>
       <c r="Q14" t="n">
-        <v>2168.459826904657</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R14" t="n">
-        <v>2168.459826904657</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S14" t="n">
-        <v>2168.459826904657</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T14" t="n">
-        <v>2168.459826904657</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U14" t="n">
-        <v>1914.852662567167</v>
+        <v>1432.819691509514</v>
       </c>
       <c r="V14" t="n">
-        <v>1914.852662567167</v>
+        <v>1101.756804165943</v>
       </c>
       <c r="W14" t="n">
-        <v>1914.852662567167</v>
+        <v>1101.756804165943</v>
       </c>
       <c r="X14" t="n">
-        <v>1914.852662567167</v>
+        <v>728.291045904863</v>
       </c>
       <c r="Y14" t="n">
-        <v>1625.136916162949</v>
+        <v>728.291045904863</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>698.9667499039549</v>
+        <v>592.9790355139323</v>
       </c>
       <c r="C15" t="n">
-        <v>524.5137206228279</v>
+        <v>576.6344108167416</v>
       </c>
       <c r="D15" t="n">
-        <v>375.5793109615767</v>
+        <v>427.7000011554903</v>
       </c>
       <c r="E15" t="n">
-        <v>216.3418559561212</v>
+        <v>268.4625461500348</v>
       </c>
       <c r="F15" t="n">
-        <v>69.80729798300614</v>
+        <v>268.4625461500348</v>
       </c>
       <c r="G15" t="n">
-        <v>69.80729798300614</v>
+        <v>131.3611819303009</v>
       </c>
       <c r="H15" t="n">
-        <v>69.80729798300614</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I15" t="n">
-        <v>43.36919653809315</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J15" t="n">
-        <v>89.55356510562345</v>
+        <v>121.7846078506384</v>
       </c>
       <c r="K15" t="n">
-        <v>333.5994704680818</v>
+        <v>243.2077001209172</v>
       </c>
       <c r="L15" t="n">
-        <v>591.1506060280699</v>
+        <v>452.7985733737478</v>
       </c>
       <c r="M15" t="n">
-        <v>911.0575014965797</v>
+        <v>716.7381048692351</v>
       </c>
       <c r="N15" t="n">
-        <v>1253.840025491212</v>
+        <v>1002.071975302568</v>
       </c>
       <c r="O15" t="n">
-        <v>1545.199271745778</v>
+        <v>1240.876927054026</v>
       </c>
       <c r="P15" t="n">
-        <v>2074.985828260217</v>
+        <v>1413.205888007736</v>
       </c>
       <c r="Q15" t="n">
-        <v>2168.459826904657</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R15" t="n">
-        <v>2168.459826904657</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S15" t="n">
-        <v>2029.495166406375</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T15" t="n">
-        <v>2000.28494072119</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U15" t="n">
-        <v>1772.183350854454</v>
+        <v>1458.344136258899</v>
       </c>
       <c r="V15" t="n">
-        <v>1537.031242622711</v>
+        <v>1223.192028027156</v>
       </c>
       <c r="W15" t="n">
-        <v>1282.79388589451</v>
+        <v>968.9546712989543</v>
       </c>
       <c r="X15" t="n">
-        <v>1074.942385688977</v>
+        <v>968.9546712989543</v>
       </c>
       <c r="Y15" t="n">
-        <v>867.182086924023</v>
+        <v>761.1943725340004</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>975.3981028598282</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="C16" t="n">
-        <v>806.4619199319213</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="D16" t="n">
-        <v>656.3452805195856</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="E16" t="n">
-        <v>508.4321869371925</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="F16" t="n">
-        <v>361.5422394392821</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="G16" t="n">
-        <v>193.4094100343004</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H16" t="n">
-        <v>43.36919653809315</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I16" t="n">
-        <v>43.36919653809315</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J16" t="n">
-        <v>58.69630920174252</v>
+        <v>35.96388306992288</v>
       </c>
       <c r="K16" t="n">
-        <v>213.7203003246709</v>
+        <v>169.472972355726</v>
       </c>
       <c r="L16" t="n">
-        <v>467.624070672889</v>
+        <v>395.84507567387</v>
       </c>
       <c r="M16" t="n">
-        <v>745.7191196640795</v>
+        <v>644.9118420064103</v>
       </c>
       <c r="N16" t="n">
-        <v>1022.63630638511</v>
+        <v>893.4909737490111</v>
       </c>
       <c r="O16" t="n">
-        <v>1262.397853152954</v>
+        <v>1107.077740097166</v>
       </c>
       <c r="P16" t="n">
-        <v>1444.034594271088</v>
+        <v>1266.31743473321</v>
       </c>
       <c r="Q16" t="n">
-        <v>1486.355378693649</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="R16" t="n">
-        <v>1377.190882465731</v>
+        <v>1259.700427944742</v>
       </c>
       <c r="S16" t="n">
-        <v>1178.011396849957</v>
+        <v>1259.700427944742</v>
       </c>
       <c r="T16" t="n">
-        <v>1178.011396849957</v>
+        <v>1035.28926872018</v>
       </c>
       <c r="U16" t="n">
-        <v>1157.046567690068</v>
+        <v>746.1526417122822</v>
       </c>
       <c r="V16" t="n">
-        <v>1157.046567690068</v>
+        <v>491.4681535063953</v>
       </c>
       <c r="W16" t="n">
-        <v>1157.046567690068</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="X16" t="n">
-        <v>1157.046567690068</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="Y16" t="n">
-        <v>1157.046567690068</v>
+        <v>202.0509834694346</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>702.7912425462207</v>
+        <v>1251.460966789572</v>
       </c>
       <c r="C17" t="n">
-        <v>409.5124851747536</v>
+        <v>1211.005488048709</v>
       </c>
       <c r="D17" t="n">
-        <v>51.2467865680031</v>
+        <v>852.7397894419585</v>
       </c>
       <c r="E17" t="n">
-        <v>51.2467865680031</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F17" t="n">
-        <v>51.2467865680031</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G17" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="H17" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I17" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J17" t="n">
-        <v>187.5281822362818</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K17" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L17" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872922</v>
       </c>
       <c r="M17" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N17" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O17" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P17" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q17" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R17" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S17" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T17" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="U17" t="n">
-        <v>2184.059060190805</v>
+        <v>2308.758267664337</v>
       </c>
       <c r="V17" t="n">
-        <v>1852.996172847234</v>
+        <v>1977.695380320766</v>
       </c>
       <c r="W17" t="n">
-        <v>1852.996172847234</v>
+        <v>1624.926725050652</v>
       </c>
       <c r="X17" t="n">
-        <v>1479.530414586154</v>
+        <v>1251.460966789572</v>
       </c>
       <c r="Y17" t="n">
-        <v>1089.391082610342</v>
+        <v>1251.460966789572</v>
       </c>
     </row>
     <row r="18">
@@ -5591,37 +5591,37 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I18" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J18" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K18" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380241</v>
       </c>
       <c r="L18" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694959</v>
       </c>
       <c r="M18" t="n">
-        <v>1272.508600828714</v>
+        <v>1272.508600828716</v>
       </c>
       <c r="N18" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O18" t="n">
-        <v>1991.864164601821</v>
+        <v>1991.864164601823</v>
       </c>
       <c r="P18" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434121</v>
       </c>
       <c r="Q18" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="R18" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S18" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780098</v>
       </c>
       <c r="T18" t="n">
         <v>2232.610846175226</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>204.5015368643224</v>
+        <v>352.2580926322062</v>
       </c>
       <c r="C19" t="n">
-        <v>204.5015368643224</v>
+        <v>352.2580926322062</v>
       </c>
       <c r="D19" t="n">
-        <v>54.38489745198666</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E19" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F19" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="G19" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="H19" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I19" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J19" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312206</v>
       </c>
       <c r="K19" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L19" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M19" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N19" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O19" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P19" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q19" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R19" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S19" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T19" t="n">
-        <v>1413.467639269232</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U19" t="n">
-        <v>1124.34930177307</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V19" t="n">
-        <v>1124.34930177307</v>
+        <v>869.6648135671841</v>
       </c>
       <c r="W19" t="n">
-        <v>834.9321317361096</v>
+        <v>580.2476435302235</v>
       </c>
       <c r="X19" t="n">
-        <v>606.9425808380922</v>
+        <v>352.2580926322062</v>
       </c>
       <c r="Y19" t="n">
-        <v>386.1500016945621</v>
+        <v>352.2580926322062</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1263.725694231566</v>
+        <v>1646.341654153232</v>
       </c>
       <c r="C20" t="n">
-        <v>1263.725694231566</v>
+        <v>1277.379137212821</v>
       </c>
       <c r="D20" t="n">
-        <v>1263.725694231566</v>
+        <v>919.1134386060701</v>
       </c>
       <c r="E20" t="n">
-        <v>877.9374416333219</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="F20" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G20" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H20" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I20" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J20" t="n">
-        <v>187.5281822362819</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K20" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L20" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872922</v>
       </c>
       <c r="M20" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N20" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O20" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740842</v>
       </c>
       <c r="P20" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q20" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R20" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S20" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T20" t="n">
-        <v>2413.93062453258</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="U20" t="n">
-        <v>2413.93062453258</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="V20" t="n">
-        <v>2413.93062453258</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="W20" t="n">
-        <v>2413.93062453258</v>
+        <v>1878.507785786472</v>
       </c>
       <c r="X20" t="n">
-        <v>2040.4648662715</v>
+        <v>1878.507785786472</v>
       </c>
       <c r="Y20" t="n">
-        <v>1650.325534295688</v>
+        <v>1646.341654153232</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966407</v>
       </c>
       <c r="C21" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155137</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542625</v>
       </c>
       <c r="E21" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148807</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1446891756896</v>
+        <v>302.144689175692</v>
       </c>
       <c r="G21" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182541</v>
       </c>
       <c r="H21" t="n">
-        <v>71.67401812057899</v>
+        <v>71.6740181205811</v>
       </c>
       <c r="I21" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J21" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500115</v>
       </c>
       <c r="K21" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310616</v>
       </c>
       <c r="L21" t="n">
-        <v>909.2465818694941</v>
+        <v>593.0223835625334</v>
       </c>
       <c r="M21" t="n">
-        <v>1272.508600828714</v>
+        <v>956.2844025217537</v>
       </c>
       <c r="N21" t="n">
-        <v>1659.793729425659</v>
+        <v>1344.515588472124</v>
       </c>
       <c r="O21" t="n">
-        <v>1991.864164601821</v>
+        <v>1676.586023648286</v>
       </c>
       <c r="P21" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434121</v>
       </c>
       <c r="Q21" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="R21" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S21" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780098</v>
       </c>
       <c r="T21" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175228</v>
       </c>
       <c r="U21" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.52074204714</v>
       </c>
       <c r="V21" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815397</v>
       </c>
       <c r="W21" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X21" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881663</v>
       </c>
       <c r="Y21" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116709</v>
       </c>
     </row>
     <row r="22">
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>655.4695685676047</v>
+        <v>220.1829694959101</v>
       </c>
       <c r="C22" t="n">
-        <v>486.5333856396978</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="D22" t="n">
-        <v>346.0498276483066</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="E22" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="F22" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="G22" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="H22" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I22" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J22" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312206</v>
       </c>
       <c r="K22" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L22" t="n">
         <v>523.6376499693235</v>
       </c>
       <c r="M22" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N22" t="n">
         <v>1123.088724245823</v>
@@ -5931,31 +5931,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q22" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R22" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S22" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T22" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U22" t="n">
-        <v>1347.327782578335</v>
+        <v>927.720553932932</v>
       </c>
       <c r="V22" t="n">
-        <v>1347.327782578335</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="W22" t="n">
-        <v>1057.910612541375</v>
+        <v>383.6188956900846</v>
       </c>
       <c r="X22" t="n">
-        <v>1057.910612541375</v>
+        <v>220.1829694959101</v>
       </c>
       <c r="Y22" t="n">
-        <v>837.1180333978444</v>
+        <v>220.1829694959101</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>904.8820361188236</v>
+        <v>909.6965460670954</v>
       </c>
       <c r="C23" t="n">
-        <v>904.8820361188236</v>
+        <v>540.7340291266837</v>
       </c>
       <c r="D23" t="n">
-        <v>546.6163375120732</v>
+        <v>540.7340291266837</v>
       </c>
       <c r="E23" t="n">
-        <v>355.3059305704328</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F23" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="G23" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="H23" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I23" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J23" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K23" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L23" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M23" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N23" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O23" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P23" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q23" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R23" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S23" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T23" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.593687005982</v>
       </c>
       <c r="U23" t="n">
-        <v>1975.31341879663</v>
+        <v>2353.593687005982</v>
       </c>
       <c r="V23" t="n">
-        <v>1644.250531453059</v>
+        <v>2022.530799662411</v>
       </c>
       <c r="W23" t="n">
-        <v>1291.481876182945</v>
+        <v>1669.762144392297</v>
       </c>
       <c r="X23" t="n">
-        <v>1291.481876182945</v>
+        <v>1296.296386131217</v>
       </c>
       <c r="Y23" t="n">
-        <v>1291.481876182945</v>
+        <v>1296.296386131217</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966407</v>
       </c>
       <c r="C24" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155137</v>
       </c>
       <c r="D24" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542625</v>
       </c>
       <c r="E24" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148807</v>
       </c>
       <c r="F24" t="n">
-        <v>302.1446891756898</v>
+        <v>302.144689175692</v>
       </c>
       <c r="G24" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182541</v>
       </c>
       <c r="H24" t="n">
-        <v>71.67401812057901</v>
+        <v>71.6740181205811</v>
       </c>
       <c r="I24" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J24" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K24" t="n">
-        <v>614.5430248380235</v>
+        <v>483.0441129489481</v>
       </c>
       <c r="L24" t="n">
-        <v>909.2465818694952</v>
+        <v>1117.223096727987</v>
       </c>
       <c r="M24" t="n">
-        <v>1272.508600828715</v>
+        <v>1480.485115687207</v>
       </c>
       <c r="N24" t="n">
-        <v>1659.793729425661</v>
+        <v>1867.770244284152</v>
       </c>
       <c r="O24" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460314</v>
       </c>
       <c r="P24" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292611</v>
       </c>
       <c r="Q24" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="R24" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S24" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780098</v>
       </c>
       <c r="T24" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175228</v>
       </c>
       <c r="U24" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.52074204714</v>
       </c>
       <c r="V24" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815397</v>
       </c>
       <c r="W24" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X24" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881663</v>
       </c>
       <c r="Y24" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116709</v>
       </c>
     </row>
     <row r="25">
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>51.24678656800312</v>
+        <v>352.2580926322062</v>
       </c>
       <c r="C25" t="n">
-        <v>51.24678656800312</v>
+        <v>352.2580926322062</v>
       </c>
       <c r="D25" t="n">
-        <v>51.24678656800312</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E25" t="n">
-        <v>51.24678656800312</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F25" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G25" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H25" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I25" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J25" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K25" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L25" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M25" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N25" t="n">
         <v>1123.088724245823</v>
@@ -6168,31 +6168,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q25" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R25" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S25" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T25" t="n">
-        <v>1216.838891429094</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U25" t="n">
-        <v>927.7205539329318</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V25" t="n">
-        <v>673.036065727045</v>
+        <v>869.6648135671841</v>
       </c>
       <c r="W25" t="n">
-        <v>383.6188956900843</v>
+        <v>580.2476435302235</v>
       </c>
       <c r="X25" t="n">
-        <v>155.629344792067</v>
+        <v>352.2580926322062</v>
       </c>
       <c r="Y25" t="n">
-        <v>51.24678656800312</v>
+        <v>352.2580926322062</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1579.968004989121</v>
+        <v>724.2684475108446</v>
       </c>
       <c r="C26" t="n">
-        <v>1211.005488048709</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="D26" t="n">
-        <v>852.7397894419585</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="E26" t="n">
-        <v>466.9515368437143</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="F26" t="n">
-        <v>466.9515368437143</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G26" t="n">
-        <v>51.24678656800312</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H26" t="n">
         <v>51.24678656800312</v>
@@ -6226,10 +6226,10 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J26" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K26" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L26" t="n">
         <v>795.7553530872915</v>
@@ -6244,7 +6244,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P26" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q26" t="n">
         <v>2542.250581723851</v>
@@ -6253,25 +6253,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S26" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T26" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U26" t="n">
-        <v>2228.894479532451</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V26" t="n">
-        <v>1897.83159218888</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W26" t="n">
-        <v>1897.83159218888</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X26" t="n">
-        <v>1897.83159218888</v>
+        <v>1114.407779486656</v>
       </c>
       <c r="Y26" t="n">
-        <v>1897.83159218888</v>
+        <v>724.2684475108446</v>
       </c>
     </row>
     <row r="27">
@@ -6299,7 +6299,7 @@
         <v>165.443278618252</v>
       </c>
       <c r="H27" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I27" t="n">
         <v>51.24678656800312</v>
@@ -6308,19 +6308,19 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K27" t="n">
-        <v>507.2413987429764</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L27" t="n">
-        <v>801.9449557744481</v>
+        <v>815.1145481251089</v>
       </c>
       <c r="M27" t="n">
-        <v>1165.206974733668</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N27" t="n">
-        <v>1552.492103330613</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O27" t="n">
-        <v>1884.562538506775</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P27" t="n">
         <v>2447.02341329261</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>665.1026499885492</v>
+        <v>400.785080361718</v>
       </c>
       <c r="C28" t="n">
-        <v>496.1664670606423</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D28" t="n">
-        <v>346.0498276483066</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E28" t="n">
         <v>198.1367340659135</v>
@@ -6384,16 +6384,16 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J28" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K28" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L28" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M28" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N28" t="n">
         <v>1123.088724245823</v>
@@ -6405,31 +6405,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q28" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R28" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S28" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T28" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U28" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V28" t="n">
-        <v>1381.76163186861</v>
+        <v>1092.643294372449</v>
       </c>
       <c r="W28" t="n">
-        <v>1295.533244860336</v>
+        <v>803.2261243354878</v>
       </c>
       <c r="X28" t="n">
-        <v>1067.543693962319</v>
+        <v>803.2261243354878</v>
       </c>
       <c r="Y28" t="n">
-        <v>846.7511148187889</v>
+        <v>582.4335451919577</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1263.725694231566</v>
+        <v>531.4162778577447</v>
       </c>
       <c r="C29" t="n">
-        <v>1263.725694231566</v>
+        <v>531.4162778577447</v>
       </c>
       <c r="D29" t="n">
-        <v>1263.725694231566</v>
+        <v>531.4162778577447</v>
       </c>
       <c r="E29" t="n">
-        <v>877.9374416333219</v>
+        <v>531.4162778577447</v>
       </c>
       <c r="F29" t="n">
-        <v>466.9515368437143</v>
+        <v>120.4303730681372</v>
       </c>
       <c r="G29" t="n">
-        <v>51.24678656800315</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H29" t="n">
-        <v>51.24678656800315</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I29" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J29" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K29" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L29" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M29" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N29" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O29" t="n">
         <v>2055.228484740841</v>
       </c>
       <c r="P29" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q29" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R29" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S29" t="n">
-        <v>2562.339328400157</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T29" t="n">
-        <v>2353.593687005982</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U29" t="n">
-        <v>2353.593687005982</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V29" t="n">
-        <v>2022.530799662411</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W29" t="n">
-        <v>1669.762144392297</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X29" t="n">
-        <v>1296.296386131217</v>
+        <v>918.0161179218665</v>
       </c>
       <c r="Y29" t="n">
-        <v>1296.296386131217</v>
+        <v>918.0161179218665</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>931.3041410966407</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C30" t="n">
-        <v>756.8511118155137</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D30" t="n">
-        <v>607.9167021542625</v>
+        <v>607.9167021542615</v>
       </c>
       <c r="E30" t="n">
-        <v>448.679247148807</v>
+        <v>448.679247148806</v>
       </c>
       <c r="F30" t="n">
-        <v>302.144689175692</v>
+        <v>302.144689175691</v>
       </c>
       <c r="G30" t="n">
-        <v>165.4432786182541</v>
+        <v>165.4432786182532</v>
       </c>
       <c r="H30" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812058019</v>
       </c>
       <c r="I30" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J30" t="n">
         <v>238.4273302370162</v>
       </c>
       <c r="K30" t="n">
-        <v>614.5430248380242</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L30" t="n">
-        <v>909.246581869496</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M30" t="n">
-        <v>1272.508600828716</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N30" t="n">
-        <v>1659.793729425661</v>
+        <v>1715.293511287797</v>
       </c>
       <c r="O30" t="n">
-        <v>1991.864164601823</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P30" t="n">
-        <v>2239.046898434121</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q30" t="n">
-        <v>2562.339328400157</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R30" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S30" t="n">
-        <v>2426.617474780098</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T30" t="n">
-        <v>2232.610846175228</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U30" t="n">
-        <v>2004.52074204714</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V30" t="n">
-        <v>1769.368633815397</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W30" t="n">
         <v>1515.131277087195</v>
       </c>
       <c r="X30" t="n">
-        <v>1307.279776881663</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y30" t="n">
-        <v>1099.519478116709</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>496.1664670606424</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C31" t="n">
-        <v>496.1664670606424</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D31" t="n">
-        <v>346.0498276483066</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E31" t="n">
         <v>198.1367340659135</v>
       </c>
       <c r="F31" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G31" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H31" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I31" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J31" t="n">
-        <v>76.71595955312205</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K31" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L31" t="n">
         <v>523.6376499693235</v>
@@ -6657,16 +6657,16 @@
         <v>1347.327782578335</v>
       </c>
       <c r="V31" t="n">
-        <v>1188.024681071373</v>
+        <v>1092.643294372449</v>
       </c>
       <c r="W31" t="n">
-        <v>898.6075110344123</v>
+        <v>803.2261243354878</v>
       </c>
       <c r="X31" t="n">
-        <v>898.6075110344123</v>
+        <v>575.2365734374705</v>
       </c>
       <c r="Y31" t="n">
-        <v>677.8149318908821</v>
+        <v>354.4439942939404</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1622.544763526518</v>
+        <v>486.5829526725264</v>
       </c>
       <c r="C32" t="n">
-        <v>1263.725694231566</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="D32" t="n">
-        <v>1263.725694231566</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="E32" t="n">
-        <v>877.9374416333219</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F32" t="n">
-        <v>466.9515368437143</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G32" t="n">
-        <v>51.24678656800315</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H32" t="n">
-        <v>51.24678656800315</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I32" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J32" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816093</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L32" t="n">
-        <v>795.7553530872929</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M32" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N32" t="n">
-        <v>1656.671415230819</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O32" t="n">
-        <v>2055.228484740842</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P32" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q32" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R32" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S32" t="n">
-        <v>2437.640120926628</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T32" t="n">
-        <v>2228.894479532452</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U32" t="n">
-        <v>1975.313418796632</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V32" t="n">
-        <v>1975.313418796632</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W32" t="n">
-        <v>1622.544763526518</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X32" t="n">
-        <v>1622.544763526518</v>
+        <v>918.0161179218665</v>
       </c>
       <c r="Y32" t="n">
-        <v>1622.544763526518</v>
+        <v>873.1827927366483</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>931.3041410966407</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C33" t="n">
-        <v>756.8511118155137</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D33" t="n">
-        <v>607.9167021542625</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E33" t="n">
-        <v>448.679247148807</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F33" t="n">
-        <v>302.144689175692</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G33" t="n">
-        <v>165.4432786182541</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H33" t="n">
-        <v>71.6740181205811</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I33" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J33" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K33" t="n">
-        <v>560.1394111735143</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L33" t="n">
-        <v>854.8429682049862</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M33" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N33" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O33" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P33" t="n">
-        <v>2447.023413292611</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q33" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R33" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S33" t="n">
-        <v>2426.617474780098</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T33" t="n">
-        <v>2232.610846175228</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U33" t="n">
-        <v>2004.52074204714</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V33" t="n">
-        <v>1769.368633815397</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W33" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X33" t="n">
-        <v>1307.279776881663</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y33" t="n">
-        <v>1099.519478116709</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>199.1598801503962</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="C34" t="n">
-        <v>199.1598801503962</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D34" t="n">
-        <v>199.1598801503962</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E34" t="n">
-        <v>51.24678656800315</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F34" t="n">
-        <v>51.24678656800315</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G34" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H34" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I34" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J34" t="n">
-        <v>76.71595955312205</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K34" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L34" t="n">
         <v>523.6376499693235</v>
@@ -6882,28 +6882,28 @@
         <v>1636.446120074498</v>
       </c>
       <c r="R34" t="n">
-        <v>1533.86271359008</v>
+        <v>1549.268014830038</v>
       </c>
       <c r="S34" t="n">
-        <v>1337.233965749941</v>
+        <v>1549.268014830038</v>
       </c>
       <c r="T34" t="n">
-        <v>1114.255484944676</v>
+        <v>1549.268014830038</v>
       </c>
       <c r="U34" t="n">
-        <v>1114.255484944676</v>
+        <v>1549.268014830038</v>
       </c>
       <c r="V34" t="n">
-        <v>859.5709967387896</v>
+        <v>1294.583526624151</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5904750221835</v>
+        <v>1294.583526624151</v>
       </c>
       <c r="X34" t="n">
-        <v>601.6009241241661</v>
+        <v>1066.593975726134</v>
       </c>
       <c r="Y34" t="n">
-        <v>380.808344980636</v>
+        <v>845.8013965826035</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1263.725694231566</v>
+        <v>1099.359881775428</v>
       </c>
       <c r="C35" t="n">
-        <v>1263.725694231566</v>
+        <v>1099.359881775428</v>
       </c>
       <c r="D35" t="n">
-        <v>1263.725694231566</v>
+        <v>741.0941831686771</v>
       </c>
       <c r="E35" t="n">
-        <v>877.9374416333219</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="F35" t="n">
-        <v>466.9515368437143</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G35" t="n">
-        <v>51.24678656800315</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H35" t="n">
         <v>51.24678656800315</v>
@@ -6940,13 +6940,13 @@
         <v>187.5281822362822</v>
       </c>
       <c r="K35" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L35" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872922</v>
       </c>
       <c r="M35" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N35" t="n">
         <v>1656.671415230818</v>
@@ -6955,7 +6955,7 @@
         <v>2055.228484740841</v>
       </c>
       <c r="P35" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q35" t="n">
         <v>2542.250581723852</v>
@@ -6970,19 +6970,19 @@
         <v>2437.640120926628</v>
       </c>
       <c r="U35" t="n">
-        <v>2437.640120926628</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V35" t="n">
-        <v>2106.577233583057</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="W35" t="n">
-        <v>1753.808578312943</v>
+        <v>1831.290404920693</v>
       </c>
       <c r="X35" t="n">
-        <v>1650.325534295688</v>
+        <v>1831.290404920693</v>
       </c>
       <c r="Y35" t="n">
-        <v>1650.325534295688</v>
+        <v>1485.959721839549</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3041410966407</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8511118155137</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9167021542625</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E36" t="n">
-        <v>448.679247148807</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F36" t="n">
-        <v>302.144689175692</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G36" t="n">
         <v>165.443278618252</v>
@@ -7019,49 +7019,49 @@
         <v>238.4273302370162</v>
       </c>
       <c r="K36" t="n">
-        <v>423.1489515180663</v>
+        <v>590.2049751143488</v>
       </c>
       <c r="L36" t="n">
-        <v>717.852508549538</v>
+        <v>884.9085321458207</v>
       </c>
       <c r="M36" t="n">
-        <v>1081.114527508758</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.399656105704</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O36" t="n">
-        <v>2102.578639884743</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P36" t="n">
-        <v>2349.76137371704</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q36" t="n">
-        <v>2562.339328400157</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R36" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S36" t="n">
-        <v>2426.617474780098</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T36" t="n">
-        <v>2232.610846175228</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U36" t="n">
-        <v>2004.52074204714</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V36" t="n">
-        <v>1769.368633815397</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W36" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X36" t="n">
-        <v>1307.279776881663</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y36" t="n">
-        <v>1099.519478116709</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>199.1598801503962</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="C37" t="n">
-        <v>199.1598801503962</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="D37" t="n">
-        <v>199.1598801503962</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E37" t="n">
-        <v>51.24678656800315</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F37" t="n">
         <v>51.24678656800315</v>
@@ -7122,25 +7122,25 @@
         <v>1636.446120074498</v>
       </c>
       <c r="S37" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T37" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U37" t="n">
-        <v>971.2510892912611</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V37" t="n">
-        <v>716.5666010853743</v>
+        <v>1092.643294372449</v>
       </c>
       <c r="W37" t="n">
-        <v>427.1494310484136</v>
+        <v>1092.643294372449</v>
       </c>
       <c r="X37" t="n">
-        <v>199.1598801503962</v>
+        <v>864.6537434744312</v>
       </c>
       <c r="Y37" t="n">
-        <v>199.1598801503962</v>
+        <v>643.861164330901</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>918.0161179218665</v>
+        <v>1287.435190625614</v>
       </c>
       <c r="C38" t="n">
-        <v>918.0161179218665</v>
+        <v>1287.435190625614</v>
       </c>
       <c r="D38" t="n">
-        <v>852.7397894419585</v>
+        <v>929.169492018864</v>
       </c>
       <c r="E38" t="n">
-        <v>466.9515368437143</v>
+        <v>543.3812394206197</v>
       </c>
       <c r="F38" t="n">
-        <v>466.9515368437143</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G38" t="n">
-        <v>51.24678656800313</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H38" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I38" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J38" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K38" t="n">
         <v>442.5171852816084</v>
@@ -7195,31 +7195,31 @@
         <v>2360.886721764998</v>
       </c>
       <c r="Q38" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R38" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S38" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926628</v>
       </c>
       <c r="T38" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926628</v>
       </c>
       <c r="U38" t="n">
-        <v>1975.313418796631</v>
+        <v>2437.640120926628</v>
       </c>
       <c r="V38" t="n">
-        <v>1644.25053145306</v>
+        <v>2437.640120926628</v>
       </c>
       <c r="W38" t="n">
-        <v>1291.481876182946</v>
+        <v>2437.640120926628</v>
       </c>
       <c r="X38" t="n">
-        <v>918.0161179218665</v>
+        <v>2064.174362665548</v>
       </c>
       <c r="Y38" t="n">
-        <v>918.0161179218665</v>
+        <v>1674.035030689736</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966407</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155137</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542625</v>
       </c>
       <c r="E39" t="n">
-        <v>448.6792471488059</v>
+        <v>448.679247148807</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1446891756909</v>
+        <v>302.144689175692</v>
       </c>
       <c r="G39" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182541</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I39" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J39" t="n">
         <v>238.4273302370162</v>
       </c>
       <c r="K39" t="n">
-        <v>614.5430248380233</v>
+        <v>614.5430248380242</v>
       </c>
       <c r="L39" t="n">
-        <v>909.2465818694951</v>
+        <v>909.246581869496</v>
       </c>
       <c r="M39" t="n">
-        <v>1272.508600828715</v>
+        <v>1272.508600828716</v>
       </c>
       <c r="N39" t="n">
         <v>1659.793729425661</v>
       </c>
       <c r="O39" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601823</v>
       </c>
       <c r="P39" t="n">
-        <v>2239.04689843412</v>
+        <v>2239.046898434121</v>
       </c>
       <c r="Q39" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="R39" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S39" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780098</v>
       </c>
       <c r="T39" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175228</v>
       </c>
       <c r="U39" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.52074204714</v>
       </c>
       <c r="V39" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815397</v>
       </c>
       <c r="W39" t="n">
         <v>1515.131277087195</v>
       </c>
       <c r="X39" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881663</v>
       </c>
       <c r="Y39" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116709</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>606.5973764953492</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="C40" t="n">
-        <v>606.5973764953492</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D40" t="n">
-        <v>456.4807370830134</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E40" t="n">
         <v>366.1231987576349</v>
       </c>
       <c r="F40" t="n">
-        <v>219.2332512597245</v>
+        <v>219.2332512597246</v>
       </c>
       <c r="G40" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="H40" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I40" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J40" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K40" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L40" t="n">
         <v>523.6376499693235</v>
@@ -7362,22 +7362,22 @@
         <v>1439.817372234359</v>
       </c>
       <c r="T40" t="n">
-        <v>1439.817372234359</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U40" t="n">
-        <v>1150.699034738197</v>
+        <v>1135.218566619564</v>
       </c>
       <c r="V40" t="n">
-        <v>896.0145465323097</v>
+        <v>1135.218566619564</v>
       </c>
       <c r="W40" t="n">
-        <v>606.5973764953492</v>
+        <v>845.8013965826035</v>
       </c>
       <c r="X40" t="n">
-        <v>606.5973764953492</v>
+        <v>845.8013965826035</v>
       </c>
       <c r="Y40" t="n">
-        <v>606.5973764953492</v>
+        <v>845.8013965826035</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1457.824646659614</v>
+        <v>1622.544763526518</v>
       </c>
       <c r="C41" t="n">
-        <v>1088.862129719202</v>
+        <v>1253.582246586106</v>
       </c>
       <c r="D41" t="n">
-        <v>1088.862129719202</v>
+        <v>895.3165479793558</v>
       </c>
       <c r="E41" t="n">
-        <v>703.0738771209576</v>
+        <v>895.3165479793558</v>
       </c>
       <c r="F41" t="n">
-        <v>466.9515368437143</v>
+        <v>484.3306431897483</v>
       </c>
       <c r="G41" t="n">
-        <v>51.24678656800315</v>
+        <v>68.62589291403714</v>
       </c>
       <c r="H41" t="n">
         <v>51.24678656800315</v>
@@ -7441,22 +7441,22 @@
         <v>2437.640120926628</v>
       </c>
       <c r="T41" t="n">
-        <v>2437.640120926628</v>
+        <v>2228.894479532452</v>
       </c>
       <c r="U41" t="n">
-        <v>2184.059060190807</v>
+        <v>1975.313418796632</v>
       </c>
       <c r="V41" t="n">
-        <v>2184.059060190807</v>
+        <v>1975.313418796632</v>
       </c>
       <c r="W41" t="n">
-        <v>1831.290404920693</v>
+        <v>1622.544763526518</v>
       </c>
       <c r="X41" t="n">
-        <v>1457.824646659614</v>
+        <v>1622.544763526518</v>
       </c>
       <c r="Y41" t="n">
-        <v>1457.824646659614</v>
+        <v>1622.544763526518</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>165.4432786182541</v>
       </c>
       <c r="H42" t="n">
-        <v>71.6740181205811</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I42" t="n">
         <v>51.24678656800315</v>
@@ -7493,25 +7493,25 @@
         <v>238.4273302370162</v>
       </c>
       <c r="K42" t="n">
-        <v>590.2049751143511</v>
+        <v>614.5430248380242</v>
       </c>
       <c r="L42" t="n">
-        <v>884.908532145823</v>
+        <v>909.246581869496</v>
       </c>
       <c r="M42" t="n">
-        <v>1248.170551105043</v>
+        <v>1272.508600828716</v>
       </c>
       <c r="N42" t="n">
-        <v>1635.455679701988</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O42" t="n">
-        <v>1967.52611487815</v>
+        <v>1991.864164601823</v>
       </c>
       <c r="P42" t="n">
-        <v>2214.708848710447</v>
+        <v>2239.046898434121</v>
       </c>
       <c r="Q42" t="n">
-        <v>2538.001278676484</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="R42" t="n">
         <v>2562.339328400157</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.4335451919577</v>
+        <v>643.1898500774761</v>
       </c>
       <c r="C43" t="n">
-        <v>582.4335451919577</v>
+        <v>643.1898500774761</v>
       </c>
       <c r="D43" t="n">
-        <v>582.4335451919577</v>
+        <v>493.0732106651403</v>
       </c>
       <c r="E43" t="n">
-        <v>434.5204516095646</v>
+        <v>345.1601170827472</v>
       </c>
       <c r="F43" t="n">
-        <v>287.6305041116542</v>
+        <v>198.2701695848369</v>
       </c>
       <c r="G43" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="H43" t="n">
         <v>51.24678656800315</v>
@@ -7593,28 +7593,28 @@
         <v>1636.446120074498</v>
       </c>
       <c r="R43" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S43" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T43" t="n">
-        <v>1636.446120074498</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U43" t="n">
-        <v>1347.327782578335</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V43" t="n">
-        <v>1092.643294372449</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W43" t="n">
-        <v>803.2261243354878</v>
+        <v>824.8383149077158</v>
       </c>
       <c r="X43" t="n">
-        <v>803.2261243354878</v>
+        <v>824.8383149077158</v>
       </c>
       <c r="Y43" t="n">
-        <v>582.4335451919577</v>
+        <v>824.8383149077158</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>918.0161179218665</v>
+        <v>970.504798960113</v>
       </c>
       <c r="C44" t="n">
-        <v>549.0536009814548</v>
+        <v>970.504798960113</v>
       </c>
       <c r="D44" t="n">
-        <v>549.0536009814548</v>
+        <v>970.504798960113</v>
       </c>
       <c r="E44" t="n">
-        <v>549.0536009814548</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F44" t="n">
-        <v>533.3251860078258</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G44" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H44" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I44" t="n">
         <v>51.24678656800313</v>
@@ -7654,13 +7654,13 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L44" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M44" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N44" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O44" t="n">
         <v>2055.228484740841</v>
@@ -7675,25 +7675,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S44" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T44" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="U44" t="n">
-        <v>1975.313418796631</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="V44" t="n">
-        <v>1644.25053145306</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="W44" t="n">
-        <v>1291.481876182946</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X44" t="n">
-        <v>918.0161179218665</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="Y44" t="n">
-        <v>918.0161179218665</v>
+        <v>1357.104639024235</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542615</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E45" t="n">
-        <v>448.679247148806</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F45" t="n">
-        <v>302.144689175691</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4432786182532</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H45" t="n">
         <v>71.67401812057901</v>
@@ -7730,49 +7730,49 @@
         <v>238.4273302370162</v>
       </c>
       <c r="K45" t="n">
-        <v>684.9695361605191</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L45" t="n">
-        <v>979.6730931919908</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M45" t="n">
-        <v>1342.935112151211</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N45" t="n">
-        <v>1867.770244284151</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O45" t="n">
-        <v>2199.840679460313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P45" t="n">
-        <v>2447.02341329261</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q45" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R45" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S45" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T45" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V45" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y45" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>220.18296949591</v>
+        <v>665.1026499885493</v>
       </c>
       <c r="C46" t="n">
-        <v>51.24678656800313</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="D46" t="n">
-        <v>51.24678656800313</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E46" t="n">
-        <v>51.24678656800313</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F46" t="n">
         <v>51.24678656800313</v>
@@ -7833,25 +7833,25 @@
         <v>1636.446120074498</v>
       </c>
       <c r="S46" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T46" t="n">
-        <v>1281.392516132937</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U46" t="n">
-        <v>992.2741786367748</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V46" t="n">
-        <v>737.5896904308879</v>
+        <v>869.6648135671841</v>
       </c>
       <c r="W46" t="n">
-        <v>448.1725203939274</v>
+        <v>869.6648135671841</v>
       </c>
       <c r="X46" t="n">
-        <v>220.18296949591</v>
+        <v>869.6648135671841</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.18296949591</v>
+        <v>665.1026499885493</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>218.2111409464629</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L2" t="n">
-        <v>233.4357089658653</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M2" t="n">
-        <v>227.7528737187178</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N2" t="n">
-        <v>226.7777408199137</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O2" t="n">
-        <v>227.6097508526263</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P2" t="n">
-        <v>229.1091522321465</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>136.5653954824675</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
-        <v>136.8385818314783</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M3" t="n">
-        <v>140.1317786452013</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
-        <v>129.2864630672354</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O3" t="n">
-        <v>140.7160931202018</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P3" t="n">
-        <v>132.4654202195568</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9730561082392</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8142,19 +8142,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>133.8997196622861</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M4" t="n">
-        <v>137.8872852940284</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6717389884799</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O4" t="n">
-        <v>137.5201250048898</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8218,25 +8218,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>208.3214547517356</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
-        <v>221.1666787354324</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M5" t="n">
-        <v>214.1012135983212</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N5" t="n">
-        <v>212.9051825663978</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O5" t="n">
-        <v>214.5102874732696</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P5" t="n">
-        <v>217.9290633046618</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>122.1609165114202</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
-        <v>129.8481964236088</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L6" t="n">
-        <v>127.8064787429921</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
-        <v>129.5917403577182</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N6" t="n">
-        <v>118.4674613291454</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>130.8188201934042</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P6" t="n">
-        <v>124.5219861368073</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.663080786811</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,19 +8379,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>128.7148261097669</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M7" t="n">
-        <v>132.4205420186164</v>
+        <v>129.0262495446562</v>
       </c>
       <c r="N7" t="n">
-        <v>121.3349826493852</v>
+        <v>118.0213988638391</v>
       </c>
       <c r="O7" t="n">
-        <v>132.590766746692</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P7" t="n">
-        <v>132.7088230120157</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>100.9387195582597</v>
       </c>
       <c r="K8" t="n">
-        <v>202.1809638361346</v>
+        <v>100.0299464227919</v>
       </c>
       <c r="L8" t="n">
-        <v>213.5488567752802</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M8" t="n">
-        <v>205.6249188705004</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N8" t="n">
-        <v>204.2917325281876</v>
+        <v>61.00144891149961</v>
       </c>
       <c r="O8" t="n">
-        <v>206.3768508508745</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P8" t="n">
-        <v>210.9873633211545</v>
+        <v>95.50771753390021</v>
       </c>
       <c r="Q8" t="n">
-        <v>207.1020630664798</v>
+        <v>120.3816583481039</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>119.7207117878867</v>
+        <v>79.12633608862856</v>
       </c>
       <c r="K9" t="n">
-        <v>125.6774978810001</v>
+        <v>56.29524403393702</v>
       </c>
       <c r="L9" t="n">
-        <v>122.1984598562864</v>
+        <v>28.90545725697471</v>
       </c>
       <c r="M9" t="n">
-        <v>123.047446830095</v>
+        <v>14.17891314335149</v>
       </c>
       <c r="N9" t="n">
-        <v>111.7499598249992</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>124.673618687554</v>
+        <v>22.44423757443683</v>
       </c>
       <c r="P9" t="n">
-        <v>119.5899201578276</v>
+        <v>37.54182911310821</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3661252938572</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>79.82491575659759</v>
       </c>
       <c r="L10" t="n">
-        <v>125.4955336943436</v>
+        <v>71.94053294496764</v>
       </c>
       <c r="M10" t="n">
-        <v>129.0262495446562</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N10" t="n">
-        <v>118.0213988638391</v>
+        <v>62.89780050171086</v>
       </c>
       <c r="O10" t="n">
-        <v>129.5301358016631</v>
+        <v>78.61457070130248</v>
       </c>
       <c r="P10" t="n">
-        <v>130.0899244982092</v>
+        <v>86.52286261917671</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>8.415453355225026</v>
+        <v>47.08006655442225</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>167.5312695551383</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.15190184562752</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>36.11930434677079</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>26.19461818159743</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>63.37360602116064</v>
       </c>
       <c r="K15" t="n">
-        <v>87.83296830063568</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>31.66886087721419</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878361</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>0.9556134883079039</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>193.3273467878358</v>
+        <v>186.5911984019056</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>342.9044714621891</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>211.0329012241567</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>224.3355197601774</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>193.3273467878363</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>129.4330134067487</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>265.0304328515159</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>20.93778120154985</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>168.7434581780632</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>305.1601501039162</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>98.24448441976929</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>193.3273467878354</v>
+        <v>193.3273467878363</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>168.7434581780655</v>
+        <v>193.3273467878363</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>138.9393975111063</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>20.93778120154985</v>
@@ -22561,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.2879682170718</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H2" t="n">
-        <v>339.3235460419765</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>209.9064962068211</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
-        <v>10.69576364311372</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>148.9413660216818</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>208.6835142066282</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0311969618593</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3444713639914</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3356148920818</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>112.1591249337519</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>89.12455904281175</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>99.6672001609758</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>171.5363898835276</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1328769967189</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9408621947163</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>162.1682702466266</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>155.2512431493756</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>92.89079271141465</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>21.49978743611831</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.920177260816417</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>85.60728995481479</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>176.9955073465141</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>223.9011423785076</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9172826158254</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3186679929276</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22798,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.2102214038314</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H5" t="n">
-        <v>338.5273214908784</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>206.909162189371</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>144.0576027644702</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S5" t="n">
-        <v>206.9118586999128</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
-        <v>222.6908602868995</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22877,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2940166796957</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
-        <v>111.757373777286</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>87.69233988828964</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08446202703757</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
-        <v>170.7637213332854</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
-        <v>199.9652070090748</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
-        <v>161.8582038473137</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I7" t="n">
-        <v>154.2024705022108</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J7" t="n">
-        <v>90.42516245839145</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871617</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22986,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.6870224659892</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R7" t="n">
-        <v>175.4274210366964</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S7" t="n">
-        <v>223.2933741908973</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
-        <v>227.7682732010226</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23035,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.1619485273195</v>
+        <v>414.3588981658848</v>
       </c>
       <c r="H8" t="n">
-        <v>338.0329468943008</v>
+        <v>329.8087073802583</v>
       </c>
       <c r="I8" t="n">
-        <v>205.0481221176458</v>
+        <v>174.0885230584365</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.0252816852793</v>
+        <v>90.58066941881005</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8118405263978</v>
+        <v>187.5123304152058</v>
       </c>
       <c r="T8" t="n">
-        <v>222.4795457699687</v>
+        <v>218.9641928127885</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3343897888113</v>
+        <v>251.2701457598965</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2681884137393</v>
+        <v>136.8385185906377</v>
       </c>
       <c r="H9" t="n">
-        <v>111.5079271034444</v>
+        <v>107.3582211803319</v>
       </c>
       <c r="I9" t="n">
-        <v>86.80307722268741</v>
+        <v>72.00962059397116</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>95.48084390037957</v>
+        <v>68.80362453272261</v>
       </c>
       <c r="S9" t="n">
-        <v>170.2839726213331</v>
+        <v>162.3030441088983</v>
       </c>
       <c r="T9" t="n">
-        <v>199.8611009721718</v>
+        <v>198.1292300623896</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9364262421938</v>
+        <v>225.908158490674</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9278262653587</v>
+        <v>167.5676055192152</v>
       </c>
       <c r="H10" t="n">
-        <v>161.6656840978772</v>
+        <v>158.4629941912556</v>
       </c>
       <c r="I10" t="n">
-        <v>153.551289182031</v>
+        <v>142.7184689252781</v>
       </c>
       <c r="J10" t="n">
-        <v>88.89425643449839</v>
+        <v>63.42664968215054</v>
       </c>
       <c r="K10" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23223,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>80.87383288310646</v>
+        <v>50.71025749466926</v>
       </c>
       <c r="R10" t="n">
-        <v>174.4537986637794</v>
+        <v>158.2569640235438</v>
       </c>
       <c r="S10" t="n">
-        <v>222.9160118599466</v>
+        <v>216.6383466748816</v>
       </c>
       <c r="T10" t="n">
-        <v>227.6757534850358</v>
+        <v>226.1366284787861</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3155846423218</v>
+        <v>286.2959362379867</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>375.0923474113601</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>87.08179530772037</v>
       </c>
       <c r="H11" t="n">
-        <v>305.6988185531575</v>
+        <v>312.0025054164497</v>
       </c>
       <c r="I11" t="n">
-        <v>83.32846066304489</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.8661356980023</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.3531444450041</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0818102436101</v>
+        <v>251.1310517862991</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>191.3446962094153</v>
+        <v>23.70254052921644</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>60.69951046785701</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.74006692733528</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23345,16 +23345,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>56.07424169506812</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>135.9082456292488</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>98.37374284270709</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>11.04509803525781</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>145.0236318655554</v>
       </c>
       <c r="T12" t="n">
-        <v>193.0521387366272</v>
+        <v>194.3795772048614</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23424,22 +23424,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>8.54679370330598</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5115951576605</v>
+        <v>166.7876959182808</v>
       </c>
       <c r="H13" t="n">
-        <v>149.0741020676154</v>
+        <v>151.528888830221</v>
       </c>
       <c r="I13" t="n">
-        <v>110.9613573250719</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>8.287040896090915</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>110.7748981303697</v>
+        <v>123.1893923306223</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>182.9020981084538</v>
       </c>
       <c r="T13" t="n">
-        <v>221.6245842066891</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2533957142994</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23497,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>131.5475679428741</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>304.326804756183</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I14" t="n">
-        <v>78.16360657708285</v>
+        <v>94.24014755885167</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.8133087092504</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T14" t="n">
-        <v>208.0722578696038</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>99.41934971587852</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>156.5273205380969</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>33.85559031833735</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,10 +23624,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T15" t="n">
-        <v>163.84509488243</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I16" t="n">
-        <v>109.1541654470835</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>83.38653526741307</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T16" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>265.479876947426</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>74.92692197325511</v>
+        <v>325.2219678175529</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I17" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T17" t="n">
         <v>206.6581849802338</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>142.4692906841518</v>
       </c>
       <c r="E19" t="n">
-        <v>143.3272328714255</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H19" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I19" t="n">
         <v>104.7965952039006</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I20" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T20" t="n">
-        <v>183.1857835501284</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U20" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>156.3934683391458</v>
       </c>
     </row>
     <row r="21">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>9.536750606735012</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.3066000448042</v>
@@ -24177,25 +24177,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S22" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>63.90808845680442</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>192.5330672000379</v>
+        <v>304.2140456808795</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I23" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24369,13 +24369,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>100.8319232414832</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.3066000448042</v>
@@ -24384,7 +24384,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I25" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>115.2459207102715</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>68.04889033571897</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H26" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>70.97552955034814</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>115.2404312839937</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>201.1568951983995</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>350.4888566828262</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,19 +24688,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>408.7658648102918</v>
       </c>
       <c r="H29" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I29" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>25.08779255619069</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>94.42757283193509</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>10.04201316900532</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I32" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>341.8529467226876</v>
       </c>
     </row>
     <row r="33">
@@ -25080,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>147.2515091551288</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>15.25124822755835</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
         <v>286.2271541212006</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>256.8422818371509</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25159,19 +25159,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H35" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>65.70991267247044</v>
@@ -25210,19 +25210,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U35" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>267.2828871013866</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>44.36056240572094</v>
       </c>
     </row>
     <row r="36">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>33.61422988438125</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.3066000448042</v>
@@ -25362,25 +25362,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
-        <v>43.09523000474582</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>290.0594764255741</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>220.6814899800264</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>65.70991267247044</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>56.97999970444444</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>205.4230325597658</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>173.1149288672406</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>301.0185525624054</v>
+        <v>283.8132372798317</v>
       </c>
       <c r="I41" t="n">
         <v>65.70991267247044</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>79.53822883171848</v>
+        <v>20.75345085813885</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I43" t="n">
         <v>104.7965952039006</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>290.2886863187385</v>
       </c>
       <c r="F44" t="n">
-        <v>391.3049149178187</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.3066000448042</v>
@@ -26073,10 +26073,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T46" t="n">
-        <v>63.90808845680445</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>16.06811140924634</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>338946.3786576324</v>
+        <v>340224.7101202288</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>340166.0372187131</v>
+        <v>340224.7101202288</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>340224.7101202288</v>
+        <v>331638.2836640514</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>723703.9845597195</v>
+        <v>594566.6074487036</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>751649.3895082698</v>
+        <v>664664.2703877527</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822866.1879611119</v>
+        <v>822866.1879611122</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>822866.1879611119</v>
+        <v>822866.1879611121</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>822866.187961112</v>
+        <v>822866.1879611121</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>822866.1879611121</v>
+        <v>822866.1879611122</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822866.1879611121</v>
+        <v>822866.187961112</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91613.14796096826</v>
+        <v>93250.14987573416</v>
       </c>
       <c r="C2" t="n">
-        <v>92739.38510646019</v>
+        <v>93250.14987573416</v>
       </c>
       <c r="D2" t="n">
-        <v>93250.14987573416</v>
+        <v>99166.69657404805</v>
       </c>
       <c r="E2" t="n">
-        <v>228727.7952621009</v>
+        <v>187694.2993726509</v>
       </c>
       <c r="F2" t="n">
-        <v>237615.1559891612</v>
+        <v>209951.6408984468</v>
       </c>
       <c r="G2" t="n">
+        <v>260075.8859201623</v>
+      </c>
+      <c r="H2" t="n">
         <v>260075.8859201622</v>
       </c>
-      <c r="H2" t="n">
-        <v>260075.8859201621</v>
-      </c>
       <c r="I2" t="n">
+        <v>260075.8859201624</v>
+      </c>
+      <c r="J2" t="n">
+        <v>260075.8859201623</v>
+      </c>
+      <c r="K2" t="n">
         <v>260075.8859201622</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>260075.8859201622</v>
-      </c>
-      <c r="K2" t="n">
-        <v>260075.8859201623</v>
-      </c>
-      <c r="L2" t="n">
-        <v>260075.8859201624</v>
       </c>
       <c r="M2" t="n">
         <v>260075.8859201623</v>
       </c>
       <c r="N2" t="n">
-        <v>260075.8859201622</v>
+        <v>260075.8859201623</v>
       </c>
       <c r="O2" t="n">
         <v>260075.8859201623</v>
       </c>
       <c r="P2" t="n">
-        <v>260075.8859201623</v>
+        <v>260075.8859201622</v>
       </c>
     </row>
     <row r="3">
@@ -26365,25 +26365,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3540.182044145911</v>
+        <v>33746.94210533851</v>
       </c>
       <c r="C3" t="n">
-        <v>17610.60540304349</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>10283.714857185</v>
+        <v>171076.2135941262</v>
       </c>
       <c r="E3" t="n">
-        <v>781269.0964136737</v>
+        <v>444666.6537232825</v>
       </c>
       <c r="F3" t="n">
-        <v>37433.63871589887</v>
+        <v>92902.69885727076</v>
       </c>
       <c r="G3" t="n">
-        <v>89463.48313022629</v>
+        <v>203139.1753834545</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,19 +26392,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125449.8920781832</v>
+        <v>81125.47845821139</v>
       </c>
       <c r="N3" t="n">
-        <v>9481.749999355106</v>
+        <v>23531.78037314053</v>
       </c>
       <c r="O3" t="n">
-        <v>23696.87397859833</v>
+        <v>52695.27578700936</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53328.91736755468</v>
+        <v>49503.65462529279</v>
       </c>
       <c r="C4" t="n">
-        <v>51037.36600445495</v>
+        <v>49503.65462529279</v>
       </c>
       <c r="D4" t="n">
-        <v>49503.65462529279</v>
+        <v>22471.52375672497</v>
       </c>
       <c r="E4" t="n">
-        <v>11026.54234364218</v>
+        <v>9678.686240876157</v>
       </c>
       <c r="F4" t="n">
-        <v>11294.48931476125</v>
+        <v>10460.45598285268</v>
       </c>
       <c r="G4" t="n">
-        <v>12563.18241499341</v>
+        <v>12563.18241499342</v>
       </c>
       <c r="H4" t="n">
-        <v>12563.1824149934</v>
+        <v>12563.18241499342</v>
       </c>
       <c r="I4" t="n">
-        <v>12563.18241499341</v>
+        <v>12563.18241499342</v>
       </c>
       <c r="J4" t="n">
         <v>12563.18241499341</v>
       </c>
       <c r="K4" t="n">
+        <v>12563.18241499341</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12563.18241499339</v>
+      </c>
+      <c r="M4" t="n">
+        <v>12563.1824149934</v>
+      </c>
+      <c r="N4" t="n">
         <v>12563.18241499342</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12563.18241499342</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12563.18241499342</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12563.18241499341</v>
       </c>
       <c r="O4" t="n">
         <v>12563.18241499342</v>
       </c>
       <c r="P4" t="n">
-        <v>12563.18241499341</v>
+        <v>12563.18241499339</v>
       </c>
     </row>
     <row r="5">
@@ -26469,43 +26469,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33707.69021107268</v>
+        <v>34391.06348367693</v>
       </c>
       <c r="C5" t="n">
-        <v>34129.29174257201</v>
+        <v>34391.06348367693</v>
       </c>
       <c r="D5" t="n">
-        <v>34391.06348367693</v>
+        <v>38745.80483114667</v>
       </c>
       <c r="E5" t="n">
-        <v>48491.27610772771</v>
+        <v>34339.33933155738</v>
       </c>
       <c r="F5" t="n">
-        <v>51571.48185587232</v>
+        <v>41983.78525919239</v>
       </c>
       <c r="G5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984475</v>
       </c>
       <c r="H5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984475</v>
       </c>
       <c r="I5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984475</v>
       </c>
       <c r="J5" t="n">
         <v>59310.17243984473</v>
       </c>
       <c r="K5" t="n">
-        <v>59310.17243984475</v>
+        <v>59310.17243984474</v>
       </c>
       <c r="L5" t="n">
-        <v>59310.17243984475</v>
+        <v>59310.17243984474</v>
       </c>
       <c r="M5" t="n">
         <v>59310.17243984475</v>
       </c>
       <c r="N5" t="n">
-        <v>59310.17243984474</v>
+        <v>59310.17243984475</v>
       </c>
       <c r="O5" t="n">
         <v>59310.17243984475</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14100.67720482573</v>
+        <v>-25895.58446984811</v>
       </c>
       <c r="C6" t="n">
-        <v>-25108.66434277851</v>
+        <v>7851.357635490398</v>
       </c>
       <c r="D6" t="n">
-        <v>-15969.02440316094</v>
+        <v>-134596.1165233514</v>
       </c>
       <c r="E6" t="n">
-        <v>-619130.5876576615</v>
+        <v>-301938.9002337691</v>
       </c>
       <c r="F6" t="n">
-        <v>130766.8639730312</v>
+        <v>63787.10602681409</v>
       </c>
       <c r="G6" t="n">
-        <v>93511.5852132061</v>
+        <v>-15459.39059031956</v>
       </c>
       <c r="H6" t="n">
-        <v>182975.0683434322</v>
+        <v>187679.7847931349</v>
       </c>
       <c r="I6" t="n">
-        <v>182975.0683434324</v>
+        <v>187679.784793135</v>
       </c>
       <c r="J6" t="n">
-        <v>182975.0683434324</v>
+        <v>187679.784793135</v>
       </c>
       <c r="K6" t="n">
-        <v>182975.0683434323</v>
+        <v>187679.7847931349</v>
       </c>
       <c r="L6" t="n">
-        <v>182975.0683434326</v>
+        <v>187679.7847931349</v>
       </c>
       <c r="M6" t="n">
-        <v>57525.17626524928</v>
+        <v>106554.3063349236</v>
       </c>
       <c r="N6" t="n">
-        <v>173493.3183440773</v>
+        <v>164148.0044199944</v>
       </c>
       <c r="O6" t="n">
-        <v>159278.1943648342</v>
+        <v>134984.5090061256</v>
       </c>
       <c r="P6" t="n">
-        <v>182975.0683434324</v>
+        <v>187679.7847931349</v>
       </c>
     </row>
   </sheetData>
@@ -26737,31 +26737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.673862893242319</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678932</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>35.02126071912533</v>
+        <v>234.7800381259942</v>
       </c>
       <c r="E3" t="n">
-        <v>820.3857840790104</v>
+        <v>667.2753622805059</v>
       </c>
       <c r="F3" t="n">
-        <v>853.7106645376851</v>
+        <v>749.98095649761</v>
       </c>
       <c r="G3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="H3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="I3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="J3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="K3" t="n">
         <v>934.0648921175394</v>
@@ -26798,34 +26798,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>503.4024015592975</v>
+        <v>325.5384281881966</v>
       </c>
       <c r="F4" t="n">
-        <v>542.1149567261643</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="G4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="H4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="I4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="J4" t="n">
         <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="L4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="M4" t="n">
         <v>640.5848321000393</v>
       </c>
       <c r="N4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="O4" t="n">
         <v>640.5848321000393</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.673862893242319</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="C3" t="n">
-        <v>19.339519793547</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.007878032336</v>
+        <v>199.7587774068689</v>
       </c>
       <c r="E3" t="n">
-        <v>785.3645233598851</v>
+        <v>432.4953241545116</v>
       </c>
       <c r="F3" t="n">
-        <v>33.32488045867478</v>
+        <v>82.70559421710414</v>
       </c>
       <c r="G3" t="n">
-        <v>80.35422757985395</v>
+        <v>184.0839356199295</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>503.4024015592975</v>
+        <v>325.5384281881966</v>
       </c>
       <c r="F4" t="n">
-        <v>38.71255516686682</v>
+        <v>96.07671009378521</v>
       </c>
       <c r="G4" t="n">
-        <v>98.4698753738744</v>
+        <v>218.9696938180575</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>503.4024015592976</v>
+        <v>325.5384281881968</v>
       </c>
       <c r="N4" t="n">
-        <v>38.71255516686648</v>
+        <v>96.07671009378521</v>
       </c>
       <c r="O4" t="n">
-        <v>98.46987537387474</v>
+        <v>218.9696938180575</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>503.4024015592975</v>
+        <v>325.5384281881966</v>
       </c>
       <c r="N4" t="n">
-        <v>38.71255516686682</v>
+        <v>96.07671009378521</v>
       </c>
       <c r="O4" t="n">
-        <v>98.4698753738744</v>
+        <v>218.9696938180575</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01476929806328569</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1512560737906247</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5693933635848223</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J2" t="n">
-        <v>1.253525711498795</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>1.878710098517679</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L2" t="n">
-        <v>2.330706004121959</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M2" t="n">
-        <v>2.593359508554916</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N2" t="n">
-        <v>2.635322776677227</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>2.48846056906043</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P2" t="n">
-        <v>2.123843523123063</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.594918036231644</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9277519194678708</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3365553796171231</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.06465260227203316</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001181543845062855</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007902271128860838</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07631930274452442</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2720738086033228</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K3" t="n">
-        <v>1.276043491891533</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L3" t="n">
-        <v>1.715797948395859</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>2.002255276817064</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
-        <v>2.05524901609789</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O3" t="n">
-        <v>1.880151324242605</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>1.508987194773435</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.008717977782306</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4906339916673424</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1467812203102001</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03185169810273293</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U3" t="n">
-        <v>0.000519886258477687</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006624998659945165</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05890226081296706</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1992317778827147</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4683874052581232</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7697043897645381</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9849566189522114</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M4" t="n">
-        <v>1.038498653576677</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N4" t="n">
-        <v>1.013805476753246</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O4" t="n">
-        <v>0.936413446952977</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8012634742900949</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5547532968795902</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2978840306553526</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1154556584646807</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02830681245612934</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9474806248887678</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I5" t="n">
-        <v>3.566727381034957</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760343</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
-        <v>11.76839629324493</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L5" t="n">
-        <v>14.5997362345548</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895154</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N5" t="n">
-        <v>16.50788103019311</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58792394841718</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P5" t="n">
-        <v>13.30393245060769</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679517</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S5" t="n">
-        <v>2.10821088633251</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318401</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4780704592104726</v>
+        <v>0.7275171330520187</v>
       </c>
       <c r="I6" t="n">
-        <v>1.704292963125436</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J6" t="n">
-        <v>4.676710155246498</v>
+        <v>7.116914878779989</v>
       </c>
       <c r="K6" t="n">
-        <v>7.993242550750212</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L6" t="n">
-        <v>10.74790103688213</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M6" t="n">
-        <v>12.54229356430018</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N6" t="n">
-        <v>12.87425075418792</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O6" t="n">
-        <v>11.77742425104019</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P6" t="n">
-        <v>9.452421277522959</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.318693299210532</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605564</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9194497705523841</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1995216857467866</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I7" t="n">
-        <v>1.248004425047526</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J7" t="n">
-        <v>2.93401765828132</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166679</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L7" t="n">
-        <v>6.169850171471354</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M7" t="n">
-        <v>6.505241928988658</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N7" t="n">
-        <v>6.350561815847948</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150827</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P7" t="n">
-        <v>5.019181037131885</v>
+        <v>7.638079550938412</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705187</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473114</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7232238460750018</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588685</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.9438393492502272</v>
       </c>
       <c r="H8" t="n">
-        <v>1.4418552214663</v>
+        <v>9.666094735508892</v>
       </c>
       <c r="I8" t="n">
-        <v>5.427767452760119</v>
+        <v>36.38736651196942</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>80.10718496842655</v>
       </c>
       <c r="K8" t="n">
-        <v>17.90888720884599</v>
+        <v>120.0599046221887</v>
       </c>
       <c r="L8" t="n">
-        <v>22.21755819470702</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M8" t="n">
-        <v>24.72131435677232</v>
+        <v>165.7299311340341</v>
       </c>
       <c r="N8" t="n">
-        <v>25.12133106840334</v>
+        <v>168.4116146850913</v>
       </c>
       <c r="O8" t="n">
-        <v>23.72136057081217</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P8" t="n">
-        <v>20.24563243411506</v>
+        <v>135.7252782213693</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.20362680796963</v>
+        <v>101.9240315263455</v>
       </c>
       <c r="R8" t="n">
-        <v>8.843836255870377</v>
+        <v>59.28844852233964</v>
       </c>
       <c r="S8" t="n">
-        <v>3.208229059847512</v>
+        <v>21.50773917103957</v>
       </c>
       <c r="T8" t="n">
-        <v>0.6163037941626978</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.07550714794001816</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.5049985725728932</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7275171330520187</v>
+        <v>4.877223056164522</v>
       </c>
       <c r="I9" t="n">
-        <v>2.593555628727678</v>
+        <v>17.38701225744391</v>
       </c>
       <c r="J9" t="n">
-        <v>7.116914878779989</v>
+        <v>47.71129057803813</v>
       </c>
       <c r="K9" t="n">
-        <v>12.16394109335884</v>
+        <v>81.54619494042197</v>
       </c>
       <c r="L9" t="n">
-        <v>16.35591992358773</v>
+        <v>109.6489225228995</v>
       </c>
       <c r="M9" t="n">
-        <v>19.0865870919233</v>
+        <v>127.9551207786668</v>
       </c>
       <c r="N9" t="n">
-        <v>19.59175225833408</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>17.92262575689049</v>
+        <v>120.1520068700076</v>
       </c>
       <c r="P9" t="n">
-        <v>14.38448725650263</v>
+        <v>96.43257830122204</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.615648792164375</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R9" t="n">
-        <v>4.676990252263569</v>
+        <v>31.35420961992052</v>
       </c>
       <c r="S9" t="n">
-        <v>1.399198482504676</v>
+        <v>9.380126994939479</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3036277226497752</v>
+        <v>2.035498632431968</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.03322359030084825</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5614884095623703</v>
+        <v>3.764178316183975</v>
       </c>
       <c r="I10" t="n">
-        <v>1.899185745227321</v>
+        <v>12.73200600198015</v>
       </c>
       <c r="J10" t="n">
-        <v>4.464923682174387</v>
+        <v>29.93253043452224</v>
       </c>
       <c r="K10" t="n">
-        <v>7.337241180170845</v>
+        <v>49.18834241393778</v>
       </c>
       <c r="L10" t="n">
-        <v>9.389142586894682</v>
+        <v>62.94414333627064</v>
       </c>
       <c r="M10" t="n">
-        <v>9.899534402948818</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N10" t="n">
-        <v>9.664145601394049</v>
+        <v>64.78774396352233</v>
       </c>
       <c r="O10" t="n">
-        <v>8.926402650179684</v>
+        <v>59.84196775054031</v>
       </c>
       <c r="P10" t="n">
-        <v>7.638079550938412</v>
+        <v>51.20514142997091</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.288210368587925</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R10" t="n">
-        <v>2.839592713390063</v>
+        <v>19.03642735362569</v>
       </c>
       <c r="S10" t="n">
-        <v>1.100586177025627</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2698359432457196</v>
+        <v>1.808960949495364</v>
       </c>
       <c r="U10" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.02309311850419617</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.29803330283019</v>
+        <v>2.682514019218112</v>
       </c>
       <c r="H11" t="n">
-        <v>33.77598356260969</v>
+        <v>27.4722966993175</v>
       </c>
       <c r="I11" t="n">
-        <v>127.147428907361</v>
+        <v>103.4176217259064</v>
       </c>
       <c r="J11" t="n">
-        <v>279.9164540360841</v>
+        <v>227.6750242386134</v>
       </c>
       <c r="K11" t="n">
-        <v>419.5222037448861</v>
+        <v>341.2258426721162</v>
       </c>
       <c r="L11" t="n">
-        <v>520.4543904363757</v>
+        <v>423.3208310877626</v>
       </c>
       <c r="M11" t="n">
-        <v>579.105790185582</v>
+        <v>471.0259897770326</v>
       </c>
       <c r="N11" t="n">
-        <v>588.4763273072483</v>
+        <v>478.6476827341361</v>
       </c>
       <c r="O11" t="n">
-        <v>555.6815086522306</v>
+        <v>451.9734339555361</v>
       </c>
       <c r="P11" t="n">
-        <v>474.2613114886102</v>
+        <v>385.7488691060888</v>
       </c>
       <c r="Q11" t="n">
-        <v>356.1504938310039</v>
+        <v>289.6813357928401</v>
       </c>
       <c r="R11" t="n">
-        <v>207.1700844589071</v>
+        <v>168.5054712597099</v>
       </c>
       <c r="S11" t="n">
-        <v>75.15393388824303</v>
+        <v>61.12778821293279</v>
       </c>
       <c r="T11" t="n">
-        <v>14.43714078313916</v>
+        <v>11.74270511912729</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2638426642264151</v>
+        <v>0.2146011215374489</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.764603384622777</v>
+        <v>1.435271533961843</v>
       </c>
       <c r="H12" t="n">
-        <v>17.04235374096208</v>
+        <v>13.86170139378938</v>
       </c>
       <c r="I12" t="n">
-        <v>60.75498495302106</v>
+        <v>49.41614711228275</v>
       </c>
       <c r="J12" t="n">
-        <v>166.7163224042072</v>
+        <v>135.6016847064564</v>
       </c>
       <c r="K12" t="n">
-        <v>284.9447491739332</v>
+        <v>231.7648774818999</v>
       </c>
       <c r="L12" t="n">
-        <v>383.143379630485</v>
+        <v>311.636479336759</v>
       </c>
       <c r="M12" t="n">
-        <v>447.1102523230606</v>
+        <v>363.6650724428757</v>
       </c>
       <c r="N12" t="n">
-        <v>458.9439302839739</v>
+        <v>373.2902047912426</v>
       </c>
       <c r="O12" t="n">
-        <v>419.8440342352271</v>
+        <v>341.4876092229302</v>
       </c>
       <c r="P12" t="n">
-        <v>336.96185157766</v>
+        <v>274.0739124808365</v>
       </c>
       <c r="Q12" t="n">
-        <v>225.2500741493917</v>
+        <v>183.2111523001117</v>
       </c>
       <c r="R12" t="n">
-        <v>109.5601996171932</v>
+        <v>89.11273611738532</v>
       </c>
       <c r="S12" t="n">
-        <v>32.77673392051516</v>
+        <v>26.65953923828246</v>
       </c>
       <c r="T12" t="n">
-        <v>7.112589958194437</v>
+        <v>5.785151489960233</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1160923279357091</v>
+        <v>0.09442575881327918</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.479384200798215</v>
+        <v>1.203283440177961</v>
       </c>
       <c r="H13" t="n">
-        <v>13.15307043982414</v>
+        <v>10.69828367721861</v>
       </c>
       <c r="I13" t="n">
-        <v>44.48911760218634</v>
+        <v>36.18601472826089</v>
       </c>
       <c r="J13" t="n">
-        <v>104.5924629964338</v>
+        <v>85.07213922058186</v>
       </c>
       <c r="K13" t="n">
-        <v>171.8775462381926</v>
+        <v>139.7996578679486</v>
       </c>
       <c r="L13" t="n">
-        <v>219.9440838168547</v>
+        <v>178.8954307333671</v>
       </c>
       <c r="M13" t="n">
-        <v>231.9001979487602</v>
+        <v>188.620148718078</v>
       </c>
       <c r="N13" t="n">
-        <v>226.386129563967</v>
+        <v>184.135183168324</v>
       </c>
       <c r="O13" t="n">
-        <v>209.1042323091878</v>
+        <v>170.0786447989723</v>
       </c>
       <c r="P13" t="n">
-        <v>178.9247946129041</v>
+        <v>145.5316626193417</v>
       </c>
       <c r="Q13" t="n">
-        <v>123.8782533959306</v>
+        <v>100.7585797043564</v>
       </c>
       <c r="R13" t="n">
-        <v>66.51849324679974</v>
+        <v>54.10399904654723</v>
       </c>
       <c r="S13" t="n">
-        <v>25.78163193572889</v>
+        <v>20.96994868019228</v>
       </c>
       <c r="T13" t="n">
-        <v>6.321005221592372</v>
+        <v>5.14130197166947</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08069368367990275</v>
+        <v>0.06563364219152523</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.432002671508279</v>
+        <v>3.014998820090892</v>
       </c>
       <c r="H14" t="n">
-        <v>35.14799735958417</v>
+        <v>30.87735666625586</v>
       </c>
       <c r="I14" t="n">
-        <v>132.3122829933231</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J14" t="n">
-        <v>291.2869367409261</v>
+        <v>255.8942561066896</v>
       </c>
       <c r="K14" t="n">
-        <v>436.5636098258717</v>
+        <v>383.5191561611372</v>
       </c>
       <c r="L14" t="n">
-        <v>541.5957615840433</v>
+        <v>475.7894263014939</v>
       </c>
       <c r="M14" t="n">
-        <v>602.6296390934787</v>
+        <v>529.4074115682853</v>
       </c>
       <c r="N14" t="n">
-        <v>612.3808166839016</v>
+        <v>537.9737769658685</v>
       </c>
       <c r="O14" t="n">
-        <v>578.253840119091</v>
+        <v>507.9933824485897</v>
       </c>
       <c r="P14" t="n">
-        <v>493.5262741662303</v>
+        <v>433.5605990775957</v>
       </c>
       <c r="Q14" t="n">
-        <v>370.61767849284</v>
+        <v>325.5859538330906</v>
       </c>
       <c r="R14" t="n">
-        <v>215.5855378141322</v>
+        <v>189.3909196325347</v>
       </c>
       <c r="S14" t="n">
-        <v>78.20676087699499</v>
+        <v>68.70428561282128</v>
       </c>
       <c r="T14" t="n">
-        <v>15.0235916945275</v>
+        <v>13.19815733494789</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.2411999056072713</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.836283316175398</v>
+        <v>1.613166585674105</v>
       </c>
       <c r="H15" t="n">
-        <v>17.73463097464135</v>
+        <v>15.57979307743149</v>
       </c>
       <c r="I15" t="n">
-        <v>63.22291242095122</v>
+        <v>55.54104253307773</v>
       </c>
       <c r="J15" t="n">
-        <v>173.4885040076064</v>
+        <v>152.4088658859908</v>
       </c>
       <c r="K15" t="n">
-        <v>296.5194861913581</v>
+        <v>260.4910271261558</v>
       </c>
       <c r="L15" t="n">
-        <v>398.7070419616803</v>
+        <v>350.2623325605112</v>
       </c>
       <c r="M15" t="n">
-        <v>465.2723121730384</v>
+        <v>408.7396212911974</v>
       </c>
       <c r="N15" t="n">
-        <v>477.5866858152849</v>
+        <v>419.5577428240734</v>
       </c>
       <c r="O15" t="n">
-        <v>436.898513388451</v>
+        <v>383.8133674257156</v>
       </c>
       <c r="P15" t="n">
-        <v>350.6495746475636</v>
+        <v>308.0440649433297</v>
       </c>
       <c r="Q15" t="n">
-        <v>234.3999545349509</v>
+        <v>205.919299602891</v>
       </c>
       <c r="R15" t="n">
-        <v>114.0106430867498</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>34.10815721053863</v>
+        <v>29.96386179969223</v>
       </c>
       <c r="T15" t="n">
-        <v>7.401510384057852</v>
+        <v>6.502193386993428</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1061293806364543</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.539478247526973</v>
+        <v>1.352424675651428</v>
       </c>
       <c r="H16" t="n">
-        <v>13.68736114619437</v>
+        <v>12.02428484351907</v>
       </c>
       <c r="I16" t="n">
-        <v>46.29630948017481</v>
+        <v>40.67109842777204</v>
       </c>
       <c r="J16" t="n">
-        <v>108.841112100157</v>
+        <v>95.61642456855594</v>
       </c>
       <c r="K16" t="n">
-        <v>178.8593818490428</v>
+        <v>157.1271577711386</v>
       </c>
       <c r="L16" t="n">
-        <v>228.8784296368738</v>
+        <v>201.0686649600314</v>
       </c>
       <c r="M16" t="n">
-        <v>241.3202129282508</v>
+        <v>211.9987152932506</v>
       </c>
       <c r="N16" t="n">
-        <v>235.5821576420142</v>
+        <v>206.9578596840045</v>
       </c>
       <c r="O16" t="n">
-        <v>217.5982526595399</v>
+        <v>191.15908051844</v>
       </c>
       <c r="P16" t="n">
-        <v>186.1928964099895</v>
+        <v>163.5696171351508</v>
       </c>
       <c r="Q16" t="n">
-        <v>128.9103103451905</v>
+        <v>113.2471244311391</v>
       </c>
       <c r="R16" t="n">
-        <v>69.22054011153097</v>
+        <v>60.80993132519963</v>
       </c>
       <c r="S16" t="n">
-        <v>26.82890727735642</v>
+        <v>23.56907366567078</v>
       </c>
       <c r="T16" t="n">
-        <v>6.577770693978883</v>
+        <v>5.778541795965189</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.07376861867189614</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H17" t="n">
-        <v>38.45624955336178</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I17" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J17" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K17" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L17" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M17" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N17" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O17" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P17" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q17" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R17" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S17" t="n">
-        <v>85.56785418745096</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T17" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H18" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I18" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J18" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K18" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L18" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M18" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N18" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O18" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P18" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q18" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R18" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S18" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T18" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H19" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I19" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J19" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K19" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L19" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M19" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N19" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O19" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P19" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q19" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R19" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S19" t="n">
-        <v>29.35413767523478</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T19" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H20" t="n">
-        <v>38.45624955336179</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I20" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J20" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K20" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L20" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M20" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N20" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O20" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P20" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q20" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R20" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S20" t="n">
-        <v>85.56785418745099</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T20" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H21" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I21" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J21" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K21" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L21" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M21" t="n">
-        <v>509.0653662040589</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N21" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O21" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P21" t="n">
         <v>383.6539365378626</v>
@@ -32578,10 +32578,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S21" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T21" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U21" t="n">
         <v>0.1321789941675764</v>
@@ -32624,22 +32624,22 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H22" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I22" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J22" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K22" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L22" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M22" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N22" t="n">
         <v>257.7559726067959</v>
@@ -32648,22 +32648,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P22" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q22" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R22" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S22" t="n">
-        <v>29.35413767523479</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T22" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,34 +32700,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H23" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I23" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J23" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K23" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L23" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M23" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N23" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O23" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P23" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q23" t="n">
         <v>405.5015080147052</v>
@@ -32736,13 +32736,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S23" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T23" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H24" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I24" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J24" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K24" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L24" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M24" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N24" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O24" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P24" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q24" t="n">
         <v>256.4624964168761</v>
@@ -32815,10 +32815,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S24" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T24" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U24" t="n">
         <v>0.1321789941675764</v>
@@ -32864,19 +32864,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I25" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J25" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K25" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L25" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M25" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N25" t="n">
         <v>257.7559726067959</v>
@@ -32891,16 +32891,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R25" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S25" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T25" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,34 +32937,34 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H26" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I26" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J26" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K26" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L26" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M26" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N26" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O26" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P26" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q26" t="n">
         <v>405.5015080147052</v>
@@ -32973,13 +32973,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S26" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T26" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H27" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I27" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J27" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K27" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L27" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M27" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N27" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O27" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P27" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q27" t="n">
         <v>256.4624964168761</v>
@@ -33052,10 +33052,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S27" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T27" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U27" t="n">
         <v>0.1321789941675764</v>
@@ -33101,19 +33101,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I28" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J28" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K28" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L28" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M28" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N28" t="n">
         <v>257.7559726067959</v>
@@ -33128,16 +33128,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R28" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S28" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T28" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.87054950939779</v>
+        <v>46.62911971192716</v>
       </c>
       <c r="K11" t="n">
-        <v>199.4323526999056</v>
+        <v>121.1359916271356</v>
       </c>
       <c r="L11" t="n">
-        <v>284.6879754663884</v>
+        <v>187.5544161177754</v>
       </c>
       <c r="M11" t="n">
-        <v>348.7595569583093</v>
+        <v>240.6797565497599</v>
       </c>
       <c r="N11" t="n">
-        <v>359.0632637106574</v>
+        <v>249.2346191375452</v>
       </c>
       <c r="O11" t="n">
-        <v>325.5832972305438</v>
+        <v>221.8752225338493</v>
       </c>
       <c r="P11" t="n">
-        <v>243.0283157333407</v>
+        <v>154.5158733508193</v>
       </c>
       <c r="Q11" t="n">
-        <v>133.8448039565544</v>
+        <v>67.37564591839063</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>39.87869573754054</v>
+        <v>8.764058039789717</v>
       </c>
       <c r="K12" t="n">
-        <v>411.5685472121529</v>
+        <v>261.4547080626792</v>
       </c>
       <c r="L12" t="n">
-        <v>244.5889998506108</v>
+        <v>173.0820995568848</v>
       </c>
       <c r="M12" t="n">
-        <v>304.9762184010423</v>
+        <v>221.5310385208574</v>
       </c>
       <c r="N12" t="n">
-        <v>327.6022182006407</v>
+        <v>241.9484927079093</v>
       </c>
       <c r="O12" t="n">
-        <v>277.2477897907827</v>
+        <v>198.8913647784858</v>
       </c>
       <c r="P12" t="n">
-        <v>202.9874441633297</v>
+        <v>140.0995050665063</v>
       </c>
       <c r="Q12" t="n">
-        <v>184.4202019089977</v>
+        <v>43.22937821409022</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.23328287976103</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>149.6080544123097</v>
+        <v>117.5301660420657</v>
       </c>
       <c r="L13" t="n">
-        <v>247.5341090771708</v>
+        <v>206.4854559936832</v>
       </c>
       <c r="M13" t="n">
-        <v>271.4840749106008</v>
+        <v>228.2040256799186</v>
       </c>
       <c r="N13" t="n">
-        <v>270.5183019431956</v>
+        <v>228.2673555475526</v>
       </c>
       <c r="O13" t="n">
-        <v>233.6893602232275</v>
+        <v>194.663772713012</v>
       </c>
       <c r="P13" t="n">
-        <v>176.2033538777976</v>
+        <v>142.8102218842352</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.71621014423617</v>
+        <v>14.59653645266199</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>110.2410322142398</v>
+        <v>74.84835158000331</v>
       </c>
       <c r="K14" t="n">
-        <v>216.4737587808911</v>
+        <v>163.4293051161566</v>
       </c>
       <c r="L14" t="n">
-        <v>305.8293466140561</v>
+        <v>240.0230113315067</v>
       </c>
       <c r="M14" t="n">
-        <v>372.283405866206</v>
+        <v>299.0611783410126</v>
       </c>
       <c r="N14" t="n">
-        <v>382.9677530873107</v>
+        <v>308.5607133692776</v>
       </c>
       <c r="O14" t="n">
-        <v>348.1556286974043</v>
+        <v>277.895171026903</v>
       </c>
       <c r="P14" t="n">
-        <v>262.2932784109608</v>
+        <v>202.3276033223262</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.3119886183905</v>
+        <v>103.2802639586411</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>46.6508773409397</v>
+        <v>88.94484524048471</v>
       </c>
       <c r="K15" t="n">
-        <v>246.5110155176347</v>
+        <v>122.6495881517968</v>
       </c>
       <c r="L15" t="n">
-        <v>260.1526621818061</v>
+        <v>211.707952780637</v>
       </c>
       <c r="M15" t="n">
-        <v>323.13827825102</v>
+        <v>266.6055873691791</v>
       </c>
       <c r="N15" t="n">
-        <v>346.2449737319515</v>
+        <v>288.2160307407401</v>
       </c>
       <c r="O15" t="n">
-        <v>294.3022689440066</v>
+        <v>241.2171229812711</v>
       </c>
       <c r="P15" t="n">
-        <v>535.1379358731706</v>
+        <v>174.0696575289995</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.41818044892935</v>
+        <v>276.0148132527186</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>15.48193198348422</v>
+        <v>2.257244451883167</v>
       </c>
       <c r="K16" t="n">
-        <v>156.58989002316</v>
+        <v>134.8576659452557</v>
       </c>
       <c r="L16" t="n">
-        <v>256.46845489719</v>
+        <v>228.6586902203475</v>
       </c>
       <c r="M16" t="n">
-        <v>280.9040898900914</v>
+        <v>251.5825922550912</v>
       </c>
       <c r="N16" t="n">
-        <v>279.7143300212427</v>
+        <v>251.0900320632331</v>
       </c>
       <c r="O16" t="n">
-        <v>242.1833805735795</v>
+        <v>215.7442084324797</v>
       </c>
       <c r="P16" t="n">
-        <v>183.4714556748829</v>
+        <v>160.8481764000443</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.74826709349607</v>
+        <v>27.08508117944473</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K17" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L17" t="n">
-        <v>356.8062301067507</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M17" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N17" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O17" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P17" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q17" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R17" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K18" t="n">
-        <v>379.9148430313198</v>
+        <v>379.9148430313211</v>
       </c>
       <c r="L18" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M18" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N18" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O18" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P18" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q18" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K19" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L19" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M19" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N19" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O19" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P19" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q19" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K20" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L20" t="n">
-        <v>356.8062301067509</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M20" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N20" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O20" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P20" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q20" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R20" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091748</v>
       </c>
       <c r="K21" t="n">
-        <v>379.9148430313194</v>
+        <v>186.587496243485</v>
       </c>
       <c r="L21" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M21" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N21" t="n">
-        <v>391.197099592874</v>
+        <v>392.152713081182</v>
       </c>
       <c r="O21" t="n">
-        <v>335.4246819961231</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P21" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q21" t="n">
         <v>326.5580100667037</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K22" t="n">
         <v>173.4247593423491</v>
@@ -36287,7 +36287,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M22" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N22" t="n">
         <v>301.8881449860245</v>
@@ -36296,10 +36296,10 @@
         <v>262.664487629507</v>
       </c>
       <c r="P22" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q22" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K23" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L23" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M23" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N23" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O23" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P23" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q23" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R23" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K24" t="n">
-        <v>379.9148430313206</v>
+        <v>373.1786946453905</v>
       </c>
       <c r="L24" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="M24" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N24" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O24" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P24" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q24" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K25" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L25" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M25" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N25" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O25" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P25" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q25" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K26" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L26" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M26" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N26" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O26" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P26" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q26" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R26" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K27" t="n">
-        <v>397.6203974676415</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L27" t="n">
-        <v>297.6803606378502</v>
+        <v>522.0158803980277</v>
       </c>
       <c r="M27" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N27" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O27" t="n">
-        <v>335.424681996123</v>
+        <v>640.584832100039</v>
       </c>
       <c r="P27" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q27" t="n">
         <v>116.4807223308546</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K28" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L28" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M28" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N28" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O28" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P28" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q28" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K30" t="n">
-        <v>379.9148430313212</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L30" t="n">
         <v>297.6803606378503</v>
@@ -36922,19 +36922,19 @@
         <v>366.9313322820406</v>
       </c>
       <c r="N30" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="O30" t="n">
-        <v>335.4246819961231</v>
+        <v>464.8576954028719</v>
       </c>
       <c r="P30" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q30" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K33" t="n">
-        <v>451.0527332560635</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L33" t="n">
         <v>297.6803606378503</v>
@@ -37165,10 +37165,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P33" t="n">
-        <v>514.7099619750483</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q33" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K36" t="n">
-        <v>186.5874962434849</v>
+        <v>355.3309544215481</v>
       </c>
       <c r="L36" t="n">
         <v>297.6803606378503</v>
@@ -37399,16 +37399,16 @@
         <v>391.197099592874</v>
       </c>
       <c r="O36" t="n">
-        <v>640.5848321000393</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P36" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q36" t="n">
-        <v>214.7252067506239</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K39" t="n">
-        <v>379.9148430313203</v>
+        <v>379.9148430313212</v>
       </c>
       <c r="L39" t="n">
         <v>297.6803606378503</v>
@@ -37861,7 +37861,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K42" t="n">
-        <v>355.3309544215504</v>
+        <v>379.9148430313212</v>
       </c>
       <c r="L42" t="n">
         <v>297.6803606378503</v>
@@ -37882,7 +37882,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R42" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K45" t="n">
-        <v>451.0527332560635</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L45" t="n">
         <v>297.6803606378503</v>
@@ -38107,7 +38107,7 @@
         <v>366.9313322820406</v>
       </c>
       <c r="N45" t="n">
-        <v>530.1364971039803</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O45" t="n">
         <v>335.4246819961231</v>
@@ -38116,7 +38116,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q45" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
